--- a/source_data/Qual_6_data.xlsx
+++ b/source_data/Qual_6_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy_reformat&amp;upload\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF88EFF1-C9F0-45CA-B340-A8338178985D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95381362-74C6-4E93-9186-8908AB5D5BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 - Presence of a gender quota " sheetId="1" r:id="rId1"/>
@@ -614,12 +614,6 @@
     <t>Mongolia</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>ISO3</t>
   </si>
   <si>
@@ -1257,6 +1251,12 @@
   </si>
   <si>
     <t>MINSET_SERIES_DESC</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -2107,9 +2107,9 @@
   <dimension ref="A1:O382"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:E1"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,49 +2131,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1" t="s">
         <v>404</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>405</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1" t="s">
+        <v>394</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="N1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="L1" t="s">
-        <v>396</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I2">
         <v>66.026881979999999</v>
@@ -2208,7 +2208,7 @@
         <v>33.831601990000003</v>
       </c>
       <c r="K2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L2">
         <v>2015</v>
@@ -2246,7 +2246,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I3">
         <v>89.176607880000006</v>
@@ -2255,7 +2255,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L3">
         <v>2015</v>
@@ -2293,7 +2293,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I4">
         <v>90.450984840000004</v>
@@ -2302,7 +2302,7 @@
         <v>27.395985679999999</v>
       </c>
       <c r="K4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L4">
         <v>2015</v>
@@ -2340,7 +2340,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I5">
         <v>80.704896539999993</v>
@@ -2349,7 +2349,7 @@
         <v>7.6146933429999999</v>
       </c>
       <c r="K5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L5">
         <v>2015</v>
@@ -2387,7 +2387,7 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I6">
         <v>79.3608464</v>
@@ -2396,7 +2396,7 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L6">
         <v>2015</v>
@@ -2434,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I7">
         <v>54.197663480000003</v>
@@ -2443,7 +2443,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L7">
         <v>2015</v>
@@ -2481,7 +2481,7 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I8">
         <v>73.096725460000002</v>
@@ -2490,7 +2490,7 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L8">
         <v>2015</v>
@@ -2528,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I9">
         <v>83.94678863</v>
@@ -2537,7 +2537,7 @@
         <v>28.25866332</v>
       </c>
       <c r="K9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L9">
         <v>2015</v>
@@ -2575,7 +2575,7 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I10">
         <v>68.804796839999995</v>
@@ -2584,7 +2584,7 @@
         <v>29.364916340000001</v>
       </c>
       <c r="K10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L10">
         <v>2015</v>
@@ -2622,7 +2622,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I11">
         <v>20.066609280000002</v>
@@ -2631,7 +2631,7 @@
         <v>41.138970069999999</v>
       </c>
       <c r="K11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L11">
         <v>2015</v>
@@ -2669,7 +2669,7 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I12">
         <v>1.5762574170000001</v>
@@ -2678,7 +2678,7 @@
         <v>42.545486109999999</v>
       </c>
       <c r="K12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L12">
         <v>2015</v>
@@ -2716,7 +2716,7 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I13">
         <v>4.6609764560000002</v>
@@ -2725,7 +2725,7 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L13">
         <v>2015</v>
@@ -2763,7 +2763,7 @@
         <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I14">
         <v>17.785843320000001</v>
@@ -2772,7 +2772,7 @@
         <v>44.168455479999999</v>
       </c>
       <c r="K14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L14">
         <v>2015</v>
@@ -2810,7 +2810,7 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I15">
         <v>25.237631530000002</v>
@@ -2819,7 +2819,7 @@
         <v>42.757313230000001</v>
       </c>
       <c r="K15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L15">
         <v>2015</v>
@@ -2857,7 +2857,7 @@
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I16">
         <v>28.04940161</v>
@@ -2866,7 +2866,7 @@
         <v>53.541930749999999</v>
       </c>
       <c r="K16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2904,7 +2904,7 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I17">
         <v>9.3265712829999998</v>
@@ -2913,7 +2913,7 @@
         <v>56.038297210000003</v>
       </c>
       <c r="K17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L17">
         <v>2015</v>
@@ -2951,7 +2951,7 @@
         <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I18">
         <v>23.308447000000001</v>
@@ -2960,7 +2960,7 @@
         <v>61.915867380000002</v>
       </c>
       <c r="K18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L18">
         <v>2015</v>
@@ -2998,7 +2998,7 @@
         <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I19">
         <v>-7.1214252719999998</v>
@@ -3007,7 +3007,7 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L19">
         <v>2015</v>
@@ -3045,7 +3045,7 @@
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I20">
         <v>139.27161029999999</v>
@@ -3054,7 +3054,7 @@
         <v>36.655453899999998</v>
       </c>
       <c r="K20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L20">
         <v>2015</v>
@@ -3092,7 +3092,7 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I21">
         <v>26.424618760000001</v>
@@ -3101,7 +3101,7 @@
         <v>56.641966359999998</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L21">
         <v>2015</v>
@@ -3139,7 +3139,7 @@
         <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I22">
         <v>9.5529850189999994</v>
@@ -3148,7 +3148,7 @@
         <v>47.141670050000002</v>
       </c>
       <c r="K22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L22">
         <v>2015</v>
@@ -3186,7 +3186,7 @@
         <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I23">
         <v>7.4242148139999999</v>
@@ -3195,7 +3195,7 @@
         <v>43.735329180000001</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L23">
         <v>2015</v>
@@ -3233,7 +3233,7 @@
         <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I24">
         <v>28.465062400000001</v>
@@ -3242,7 +3242,7 @@
         <v>47.202367950000003</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L24">
         <v>2015</v>
@@ -3280,7 +3280,7 @@
         <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I25">
         <v>19.252140239999999</v>
@@ -3289,7 +3289,7 @@
         <v>42.787170430000003</v>
       </c>
       <c r="K25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L25">
         <v>2015</v>
@@ -3327,7 +3327,7 @@
         <v>44</v>
       </c>
       <c r="H26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I26">
         <v>170.47556729999999</v>
@@ -3336,7 +3336,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L26">
         <v>2015</v>
@@ -3374,7 +3374,7 @@
         <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I27">
         <v>19.40660158</v>
@@ -3383,7 +3383,7 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L27">
         <v>2015</v>
@@ -3421,7 +3421,7 @@
         <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I28">
         <v>-7.9615998110000001</v>
@@ -3430,7 +3430,7 @@
         <v>39.68509315</v>
       </c>
       <c r="K28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L28">
         <v>2015</v>
@@ -3468,7 +3468,7 @@
         <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I29">
         <v>99.014049259999993</v>
@@ -3477,7 +3477,7 @@
         <v>61.618998490000003</v>
       </c>
       <c r="K29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L29">
         <v>2015</v>
@@ -3515,7 +3515,7 @@
         <v>50</v>
       </c>
       <c r="H30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I30">
         <v>12.46329038</v>
@@ -3524,7 +3524,7 @@
         <v>43.938417659999999</v>
       </c>
       <c r="K30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L30">
         <v>2015</v>
@@ -3562,7 +3562,7 @@
         <v>51</v>
       </c>
       <c r="H31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I31">
         <v>20.805876000000001</v>
@@ -3571,7 +3571,7 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L31">
         <v>2015</v>
@@ -3609,7 +3609,7 @@
         <v>57</v>
       </c>
       <c r="H32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I32">
         <v>31.402708019999999</v>
@@ -3618,7 +3618,7 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L32">
         <v>2015</v>
@@ -3656,7 +3656,7 @@
         <v>58</v>
       </c>
       <c r="H33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I33">
         <v>21.700790900000001</v>
@@ -3665,7 +3665,7 @@
         <v>41.600480679999997</v>
       </c>
       <c r="K33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L33">
         <v>2015</v>
@@ -3703,7 +3703,7 @@
         <v>60</v>
       </c>
       <c r="H34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I34">
         <v>-99.138303109999995</v>
@@ -3712,7 +3712,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L34">
         <v>2015</v>
@@ -3750,7 +3750,7 @@
         <v>61</v>
       </c>
       <c r="H35" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I35">
         <v>2.6781642269999999</v>
@@ -3759,7 +3759,7 @@
         <v>28.15940032</v>
       </c>
       <c r="K35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L35">
         <v>2015</v>
@@ -3797,7 +3797,7 @@
         <v>62</v>
       </c>
       <c r="H36" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I36">
         <v>18.029598499999999</v>
@@ -3806,7 +3806,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L36">
         <v>2015</v>
@@ -3844,7 +3844,7 @@
         <v>63</v>
       </c>
       <c r="H37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I37">
         <v>-6.2819428410000002</v>
@@ -3853,7 +3853,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L37">
         <v>2015</v>
@@ -3891,7 +3891,7 @@
         <v>64</v>
       </c>
       <c r="H38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I38">
         <v>9.5727374110000003</v>
@@ -3900,7 +3900,7 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L38">
         <v>2015</v>
@@ -3938,7 +3938,7 @@
         <v>65</v>
       </c>
       <c r="H39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I39">
         <v>160.15841169999999</v>
@@ -3947,7 +3947,7 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L39">
         <v>2015</v>
@@ -3985,7 +3985,7 @@
         <v>66</v>
       </c>
       <c r="H40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I40">
         <v>177.96608839999999</v>
@@ -3994,7 +3994,7 @@
         <v>-17.833015660000001</v>
       </c>
       <c r="K40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L40">
         <v>2015</v>
@@ -4032,7 +4032,7 @@
         <v>67</v>
       </c>
       <c r="H41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I41">
         <v>-157.5643005</v>
@@ -4041,7 +4041,7 @@
         <v>1.7688377319999999</v>
       </c>
       <c r="K41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L41">
         <v>2015</v>
@@ -4079,7 +4079,7 @@
         <v>68</v>
       </c>
       <c r="H42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I42">
         <v>166.92312999999999</v>
@@ -4088,7 +4088,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L42">
         <v>2015</v>
@@ -4126,7 +4126,7 @@
         <v>69</v>
       </c>
       <c r="H43" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I43">
         <v>167.06797789999999</v>
@@ -4135,7 +4135,7 @@
         <v>-15.34445547</v>
       </c>
       <c r="K43" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L43">
         <v>2015</v>
@@ -4173,7 +4173,7 @@
         <v>70</v>
       </c>
       <c r="H44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I44">
         <v>158.22521599999999</v>
@@ -4182,7 +4182,7 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K44" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L44">
         <v>2015</v>
@@ -4220,7 +4220,7 @@
         <v>71</v>
       </c>
       <c r="H45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I45">
         <v>171.0839119</v>
@@ -4229,7 +4229,7 @@
         <v>7.1102134970000002</v>
       </c>
       <c r="K45" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L45">
         <v>2015</v>
@@ -4267,7 +4267,7 @@
         <v>72</v>
       </c>
       <c r="H46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I46">
         <v>134.57338780000001</v>
@@ -4276,7 +4276,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L46">
         <v>2015</v>
@@ -4314,7 +4314,7 @@
         <v>73</v>
       </c>
       <c r="H47" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I47">
         <v>145.8587761</v>
@@ -4323,7 +4323,7 @@
         <v>-6.7560570770000004</v>
       </c>
       <c r="K47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L47">
         <v>2015</v>
@@ -4361,7 +4361,7 @@
         <v>74</v>
       </c>
       <c r="H48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I48">
         <v>-175.19599909999999</v>
@@ -4370,7 +4370,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L48">
         <v>2015</v>
@@ -4408,7 +4408,7 @@
         <v>75</v>
       </c>
       <c r="H49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I49">
         <v>178.66796110000001</v>
@@ -4417,7 +4417,7 @@
         <v>-7.4600480710000001</v>
       </c>
       <c r="K49" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L49">
         <v>2015</v>
@@ -4455,7 +4455,7 @@
         <v>76</v>
       </c>
       <c r="H50" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I50">
         <v>-172.4430749</v>
@@ -4464,7 +4464,7 @@
         <v>-13.61541469</v>
       </c>
       <c r="K50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L50">
         <v>2015</v>
@@ -4502,7 +4502,7 @@
         <v>78</v>
       </c>
       <c r="H51" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I51">
         <v>17.578170620000002</v>
@@ -4549,7 +4549,7 @@
         <v>80</v>
       </c>
       <c r="H52" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I52">
         <v>29.890809919999999</v>
@@ -4596,7 +4596,7 @@
         <v>82</v>
       </c>
       <c r="H53" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I53">
         <v>-23.63544151</v>
@@ -4643,7 +4643,7 @@
         <v>83</v>
       </c>
       <c r="H54" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I54">
         <v>18.666184009999998</v>
@@ -4690,7 +4690,7 @@
         <v>84</v>
       </c>
       <c r="H55" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I55">
         <v>15.220526120000001</v>
@@ -4737,7 +4737,7 @@
         <v>85</v>
       </c>
       <c r="H56" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I56">
         <v>23.654965069999999</v>
@@ -4784,7 +4784,7 @@
         <v>86</v>
       </c>
       <c r="H57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I57">
         <v>2.3399335940000001</v>
@@ -4831,7 +4831,7 @@
         <v>89</v>
       </c>
       <c r="H58" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I58">
         <v>38.110742889999997</v>
@@ -4878,7 +4878,7 @@
         <v>90</v>
       </c>
       <c r="H59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I59">
         <v>42.182747069999998</v>
@@ -4925,7 +4925,7 @@
         <v>91</v>
       </c>
       <c r="H60" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I60">
         <v>11.787277469999999</v>
@@ -4972,7 +4972,7 @@
         <v>92</v>
       </c>
       <c r="H61" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I61">
         <v>-15.39944785</v>
@@ -5019,7 +5019,7 @@
         <v>93</v>
       </c>
       <c r="H62" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I62">
         <v>-1.205623522</v>
@@ -5066,7 +5066,7 @@
         <v>94</v>
       </c>
       <c r="H63" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I63">
         <v>-11.28173419</v>
@@ -5113,7 +5113,7 @@
         <v>97</v>
       </c>
       <c r="H64" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I64">
         <v>28.253621949999999</v>
@@ -5160,7 +5160,7 @@
         <v>98</v>
       </c>
       <c r="H65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I65">
         <v>-9.3118790380000007</v>
@@ -5207,7 +5207,7 @@
         <v>99</v>
       </c>
       <c r="H66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I66">
         <v>46.698233899999998</v>
@@ -5254,7 +5254,7 @@
         <v>102</v>
       </c>
       <c r="H67" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I67">
         <v>-10.33187259</v>
@@ -5301,7 +5301,7 @@
         <v>103</v>
       </c>
       <c r="H68" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I68">
         <v>57.568021999999999</v>
@@ -5348,7 +5348,7 @@
         <v>107</v>
       </c>
       <c r="H69" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I69">
         <v>8.0973632559999995</v>
@@ -5395,7 +5395,7 @@
         <v>108</v>
       </c>
       <c r="H70" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I70">
         <v>-14.40182514</v>
@@ -5442,7 +5442,7 @@
         <v>109</v>
       </c>
       <c r="H71" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I71">
         <v>29.923101939999999</v>
@@ -5489,7 +5489,7 @@
         <v>110</v>
       </c>
       <c r="H72" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I72">
         <v>6.6097722650000001</v>
@@ -5536,7 +5536,7 @@
         <v>111</v>
       </c>
       <c r="H73" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I73">
         <v>-14.46636926</v>
@@ -5583,7 +5583,7 @@
         <v>112</v>
       </c>
       <c r="H74" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I74">
         <v>55.465615909999997</v>
@@ -5630,7 +5630,7 @@
         <v>113</v>
       </c>
       <c r="H75" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I75">
         <v>-11.783065840000001</v>
@@ -5677,7 +5677,7 @@
         <v>114</v>
       </c>
       <c r="H76" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I76">
         <v>46.203674769999999</v>
@@ -5724,7 +5724,7 @@
         <v>117</v>
       </c>
       <c r="H77" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I77">
         <v>30.326187730000001</v>
@@ -5771,7 +5771,7 @@
         <v>118</v>
       </c>
       <c r="H78" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I78">
         <v>29.956501589999998</v>
@@ -5780,7 +5780,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K78" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L78">
         <v>2015</v>
@@ -5815,10 +5815,10 @@
         <v>748</v>
       </c>
       <c r="G79" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H79" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I79">
         <v>31.501492880000001</v>
@@ -5865,7 +5865,7 @@
         <v>119</v>
       </c>
       <c r="H80" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I80">
         <v>0.97835764999999997</v>
@@ -5912,7 +5912,7 @@
         <v>120</v>
       </c>
       <c r="H81" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I81">
         <v>32.391004379999998</v>
@@ -5959,7 +5959,7 @@
         <v>122</v>
       </c>
       <c r="H82" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I82">
         <v>-1.7428438289999999</v>
@@ -6006,7 +6006,7 @@
         <v>123</v>
       </c>
       <c r="H83" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I83">
         <v>27.850328999999999</v>
@@ -6053,7 +6053,7 @@
         <v>125</v>
       </c>
       <c r="H84" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I84">
         <v>-61.799975500000002</v>
@@ -6100,7 +6100,7 @@
         <v>127</v>
       </c>
       <c r="H85" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I85">
         <v>-78.051116629999996</v>
@@ -6147,7 +6147,7 @@
         <v>128</v>
       </c>
       <c r="H86" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I86">
         <v>-59.534648900000001</v>
@@ -6194,7 +6194,7 @@
         <v>130</v>
       </c>
       <c r="H87" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I87">
         <v>-53.08432878</v>
@@ -6241,7 +6241,7 @@
         <v>131</v>
       </c>
       <c r="H88" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I88">
         <v>-88.701995539999999</v>
@@ -6288,7 +6288,7 @@
         <v>133</v>
       </c>
       <c r="H89" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I89">
         <v>-73.074467510000005</v>
@@ -6335,7 +6335,7 @@
         <v>135</v>
       </c>
       <c r="H90" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I90">
         <v>-79.544601439999994</v>
@@ -6382,7 +6382,7 @@
         <v>136</v>
       </c>
       <c r="H91" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I91">
         <v>-61.349375600000002</v>
@@ -6429,7 +6429,7 @@
         <v>137</v>
       </c>
       <c r="H92" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I92">
         <v>-70.498475760000005</v>
@@ -6476,7 +6476,7 @@
         <v>138</v>
       </c>
       <c r="H93" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I93">
         <v>-78.37005241</v>
@@ -6523,7 +6523,7 @@
         <v>140</v>
       </c>
       <c r="H94" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I94">
         <v>-61.682485679999999</v>
@@ -6570,7 +6570,7 @@
         <v>142</v>
       </c>
       <c r="H95" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I95">
         <v>-58.97322037</v>
@@ -6617,7 +6617,7 @@
         <v>143</v>
       </c>
       <c r="H96" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I96">
         <v>-72.336409579999994</v>
@@ -6664,7 +6664,7 @@
         <v>144</v>
       </c>
       <c r="H97" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I97">
         <v>-86.599743810000007</v>
@@ -6711,7 +6711,7 @@
         <v>145</v>
       </c>
       <c r="H98" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I98">
         <v>-77.310684089999995</v>
@@ -6758,7 +6758,7 @@
         <v>148</v>
       </c>
       <c r="H99" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I99">
         <v>-81.266166229999996</v>
@@ -6805,7 +6805,7 @@
         <v>150</v>
       </c>
       <c r="H100" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I100">
         <v>-71.820932769999999</v>
@@ -6852,7 +6852,7 @@
         <v>151</v>
       </c>
       <c r="H101" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I101">
         <v>-62.766286129999997</v>
@@ -6899,7 +6899,7 @@
         <v>152</v>
       </c>
       <c r="H102" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I102">
         <v>-60.965295529999999</v>
@@ -6946,7 +6946,7 @@
         <v>153</v>
       </c>
       <c r="H103" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I103">
         <v>-61.190243209999998</v>
@@ -6993,7 +6993,7 @@
         <v>154</v>
       </c>
       <c r="H104" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I104">
         <v>-55.906263940000002</v>
@@ -7040,7 +7040,7 @@
         <v>155</v>
       </c>
       <c r="H105" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I105">
         <v>-61.293895040000002</v>
@@ -7087,7 +7087,7 @@
         <v>157</v>
       </c>
       <c r="H106" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I106">
         <v>-66.156420839999996</v>
@@ -7134,7 +7134,7 @@
         <v>158</v>
       </c>
       <c r="H107" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I107">
         <v>50.010647249999998</v>
@@ -7143,7 +7143,7 @@
         <v>40.392295439999998</v>
       </c>
       <c r="K107" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L107">
         <v>2015</v>
@@ -7181,7 +7181,7 @@
         <v>159</v>
       </c>
       <c r="H108" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I108">
         <v>44.938393169999998</v>
@@ -7190,7 +7190,7 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K108" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L108">
         <v>2015</v>
@@ -7228,7 +7228,7 @@
         <v>160</v>
       </c>
       <c r="H109" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I109">
         <v>43.371361499999999</v>
@@ -7237,7 +7237,7 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K109" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L109">
         <v>2015</v>
@@ -7275,7 +7275,7 @@
         <v>161</v>
       </c>
       <c r="H110" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I110">
         <v>66.653591590000005</v>
@@ -7284,7 +7284,7 @@
         <v>48.019634940000003</v>
       </c>
       <c r="K110" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L110">
         <v>2015</v>
@@ -7322,7 +7322,7 @@
         <v>162</v>
       </c>
       <c r="H111" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I111">
         <v>74.523248390000006</v>
@@ -7331,7 +7331,7 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K111" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L111">
         <v>2015</v>
@@ -7369,7 +7369,7 @@
         <v>163</v>
       </c>
       <c r="H112" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I112">
         <v>69.294998000000007</v>
@@ -7378,7 +7378,7 @@
         <v>38.430696660000002</v>
       </c>
       <c r="K112" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L112">
         <v>2015</v>
@@ -7416,7 +7416,7 @@
         <v>164</v>
       </c>
       <c r="H113" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I113">
         <v>58.978766499999999</v>
@@ -7425,7 +7425,7 @@
         <v>40.0912346</v>
       </c>
       <c r="K113" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L113">
         <v>2015</v>
@@ -7463,7 +7463,7 @@
         <v>165</v>
       </c>
       <c r="H114" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I114">
         <v>63.119445579999997</v>
@@ -7472,7 +7472,7 @@
         <v>41.775605179999999</v>
       </c>
       <c r="K114" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L114">
         <v>2015</v>
@@ -7510,7 +7510,7 @@
         <v>166</v>
       </c>
       <c r="H115" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I115">
         <v>50.5490754</v>
@@ -7519,7 +7519,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L115">
         <v>2015</v>
@@ -7557,7 +7557,7 @@
         <v>167</v>
       </c>
       <c r="H116" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I116">
         <v>35.256941220000002</v>
@@ -7566,7 +7566,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L116">
         <v>2015</v>
@@ -7604,7 +7604,7 @@
         <v>168</v>
       </c>
       <c r="H117" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I117">
         <v>43.766062669999997</v>
@@ -7613,7 +7613,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K117" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L117">
         <v>2015</v>
@@ -7651,7 +7651,7 @@
         <v>169</v>
       </c>
       <c r="H118" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I118">
         <v>37.130247740000001</v>
@@ -7660,7 +7660,7 @@
         <v>30.653659730000001</v>
       </c>
       <c r="K118" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L118">
         <v>2015</v>
@@ -7698,7 +7698,7 @@
         <v>170</v>
       </c>
       <c r="H119" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I119">
         <v>47.493050289999999</v>
@@ -7707,7 +7707,7 @@
         <v>29.539494680000001</v>
       </c>
       <c r="K119" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L119">
         <v>2015</v>
@@ -7745,7 +7745,7 @@
         <v>171</v>
       </c>
       <c r="H120" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I120">
         <v>35.893917109999997</v>
@@ -7754,7 +7754,7 @@
         <v>33.921524580000003</v>
       </c>
       <c r="K120" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L120">
         <v>2015</v>
@@ -7792,7 +7792,7 @@
         <v>172</v>
       </c>
       <c r="H121" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I121">
         <v>57.877434819999998</v>
@@ -7801,7 +7801,7 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K121" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L121">
         <v>2015</v>
@@ -7839,7 +7839,7 @@
         <v>173</v>
       </c>
       <c r="H122" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I122">
         <v>51.19152467</v>
@@ -7848,7 +7848,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L122">
         <v>2015</v>
@@ -7886,7 +7886,7 @@
         <v>174</v>
       </c>
       <c r="H123" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I123">
         <v>44.547633470000001</v>
@@ -7895,7 +7895,7 @@
         <v>24.12594211</v>
       </c>
       <c r="K123" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L123">
         <v>2015</v>
@@ -7933,7 +7933,7 @@
         <v>175</v>
       </c>
       <c r="H124" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I124">
         <v>38.50466565</v>
@@ -7942,7 +7942,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K124" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L124">
         <v>2015</v>
@@ -7980,7 +7980,7 @@
         <v>176</v>
       </c>
       <c r="H125" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I125">
         <v>53.982791589999998</v>
@@ -7989,7 +7989,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K125" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L125">
         <v>2015</v>
@@ -8027,7 +8027,7 @@
         <v>178</v>
       </c>
       <c r="H126" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I126">
         <v>45.223891430000002</v>
@@ -8036,7 +8036,7 @@
         <v>15.22242099</v>
       </c>
       <c r="K126" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L126">
         <v>2015</v>
@@ -8074,7 +8074,7 @@
         <v>179</v>
       </c>
       <c r="H127" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I127">
         <v>96.51752295</v>
@@ -8083,7 +8083,7 @@
         <v>21.193328820000001</v>
       </c>
       <c r="K127" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L127">
         <v>2015</v>
@@ -8121,7 +8121,7 @@
         <v>180</v>
       </c>
       <c r="H128" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I128">
         <v>104.922836</v>
@@ -8130,7 +8130,7 @@
         <v>12.71163737</v>
       </c>
       <c r="K128" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L128">
         <v>2015</v>
@@ -8168,7 +8168,7 @@
         <v>181</v>
       </c>
       <c r="H129" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I129">
         <v>113.9174</v>
@@ -8177,7 +8177,7 @@
         <v>-0.99458220399999997</v>
       </c>
       <c r="K129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L129">
         <v>2015</v>
@@ -8215,7 +8215,7 @@
         <v>182</v>
       </c>
       <c r="H130" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I130">
         <v>101.99019680000001</v>
@@ -8224,7 +8224,7 @@
         <v>20.274827729999998</v>
       </c>
       <c r="K130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L130">
         <v>2015</v>
@@ -8262,7 +8262,7 @@
         <v>183</v>
       </c>
       <c r="H131" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I131">
         <v>116.83463140000001</v>
@@ -8271,7 +8271,7 @@
         <v>5.452415309</v>
       </c>
       <c r="K131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L131">
         <v>2015</v>
@@ -8309,7 +8309,7 @@
         <v>185</v>
       </c>
       <c r="H132" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I132">
         <v>125.9451052</v>
@@ -8318,7 +8318,7 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L132">
         <v>2015</v>
@@ -8356,7 +8356,7 @@
         <v>186</v>
       </c>
       <c r="H133" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I133">
         <v>103.8107883</v>
@@ -8365,7 +8365,7 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K133" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L133">
         <v>2015</v>
@@ -8403,7 +8403,7 @@
         <v>187</v>
       </c>
       <c r="H134" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I134">
         <v>105.802499</v>
@@ -8412,7 +8412,7 @@
         <v>10.096430789999999</v>
       </c>
       <c r="K134" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L134">
         <v>2015</v>
@@ -8450,7 +8450,7 @@
         <v>189</v>
       </c>
       <c r="H135" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I135">
         <v>104.1403375</v>
@@ -8459,7 +8459,7 @@
         <v>32.309552170000003</v>
       </c>
       <c r="K135" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L135">
         <v>2015</v>
@@ -8497,7 +8497,7 @@
         <v>190</v>
       </c>
       <c r="H136" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I136">
         <v>127.1803633</v>
@@ -8506,7 +8506,7 @@
         <v>40.146264500000001</v>
       </c>
       <c r="K136" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L136">
         <v>2015</v>
@@ -8544,7 +8544,7 @@
         <v>192</v>
       </c>
       <c r="H137" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I137">
         <v>103.0728057</v>
@@ -8553,7 +8553,7 @@
         <v>46.838920539999997</v>
       </c>
       <c r="K137" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L137">
         <v>2015</v>
@@ -8591,7 +8591,7 @@
         <v>13</v>
       </c>
       <c r="H138" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I138">
         <v>134.34994119999999</v>
@@ -8600,7 +8600,7 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K138" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L138">
         <v>2015</v>
@@ -8638,7 +8638,7 @@
         <v>15</v>
       </c>
       <c r="H139" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I139">
         <v>14.141724719999999</v>
@@ -8647,7 +8647,7 @@
         <v>47.58704857</v>
       </c>
       <c r="K139" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L139">
         <v>2015</v>
@@ -8685,7 +8685,7 @@
         <v>20</v>
       </c>
       <c r="H140" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I140">
         <v>-101.6575058</v>
@@ -8694,7 +8694,7 @@
         <v>57.723601909999999</v>
       </c>
       <c r="K140" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L140">
         <v>2015</v>
@@ -8732,7 +8732,7 @@
         <v>21</v>
       </c>
       <c r="H141" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I141">
         <v>17.958745530000002</v>
@@ -8741,7 +8741,7 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K141" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L141">
         <v>2015</v>
@@ -8779,7 +8779,7 @@
         <v>22</v>
       </c>
       <c r="H142" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I142">
         <v>33.222859640000003</v>
@@ -8788,7 +8788,7 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K142" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L142">
         <v>2015</v>
@@ -8823,10 +8823,10 @@
         <v>203</v>
       </c>
       <c r="G143" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H143" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I143">
         <v>15.33151382</v>
@@ -8835,7 +8835,7 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K143" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L143">
         <v>2015</v>
@@ -8873,7 +8873,7 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I144">
         <v>25.84093481</v>
@@ -8882,7 +8882,7 @@
         <v>58.684871719999997</v>
       </c>
       <c r="K144" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L144">
         <v>2015</v>
@@ -8920,7 +8920,7 @@
         <v>26</v>
       </c>
       <c r="H145" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I145">
         <v>2.4572881290000002</v>
@@ -8929,7 +8929,7 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K145" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L145">
         <v>2015</v>
@@ -8967,7 +8967,7 @@
         <v>27</v>
       </c>
       <c r="H146" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I146">
         <v>10.3806066</v>
@@ -8976,7 +8976,7 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K146" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L146">
         <v>2015</v>
@@ -9014,7 +9014,7 @@
         <v>28</v>
       </c>
       <c r="H147" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I147">
         <v>22.583078270000001</v>
@@ -9023,7 +9023,7 @@
         <v>39.47301873</v>
       </c>
       <c r="K147" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L147">
         <v>2015</v>
@@ -9061,7 +9061,7 @@
         <v>29</v>
       </c>
       <c r="H148" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I148">
         <v>19.412215190000001</v>
@@ -9070,7 +9070,7 @@
         <v>47.1651448</v>
       </c>
       <c r="K148" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L148">
         <v>2015</v>
@@ -9108,7 +9108,7 @@
         <v>30</v>
       </c>
       <c r="H149" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I149">
         <v>-19.021169660000002</v>
@@ -9117,7 +9117,7 @@
         <v>64.791347630000004</v>
       </c>
       <c r="K149" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L149">
         <v>2015</v>
@@ -9155,7 +9155,7 @@
         <v>32</v>
       </c>
       <c r="H150" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I150">
         <v>34.622779919999999</v>
@@ -9164,7 +9164,7 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K150" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L150">
         <v>2015</v>
@@ -9202,7 +9202,7 @@
         <v>33</v>
       </c>
       <c r="H151" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I151">
         <v>12.570224270000001</v>
@@ -9211,7 +9211,7 @@
         <v>42.799172820000003</v>
       </c>
       <c r="K151" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L151">
         <v>2015</v>
@@ -9249,7 +9249,7 @@
         <v>37</v>
       </c>
       <c r="H152" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I152">
         <v>23.905178070000002</v>
@@ -9258,7 +9258,7 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K152" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L152">
         <v>2015</v>
@@ -9296,7 +9296,7 @@
         <v>38</v>
       </c>
       <c r="H153" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I153">
         <v>6.0926565630000002</v>
@@ -9305,7 +9305,7 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K153" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L153">
         <v>2015</v>
@@ -9343,7 +9343,7 @@
         <v>39</v>
       </c>
       <c r="H154" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I154">
         <v>14.44617519</v>
@@ -9352,7 +9352,7 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K154" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L154">
         <v>2015</v>
@@ -9390,7 +9390,7 @@
         <v>43</v>
       </c>
       <c r="H155" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I155">
         <v>5.3314805679999999</v>
@@ -9399,7 +9399,7 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K155" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L155">
         <v>2015</v>
@@ -9437,7 +9437,7 @@
         <v>45</v>
       </c>
       <c r="H156" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I156">
         <v>11.47846389</v>
@@ -9446,7 +9446,7 @@
         <v>61.34311134</v>
       </c>
       <c r="K156" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L156">
         <v>2015</v>
@@ -9484,7 +9484,7 @@
         <v>48</v>
       </c>
       <c r="H157" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I157">
         <v>24.98481009</v>
@@ -9493,7 +9493,7 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K157" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L157">
         <v>2015</v>
@@ -9531,7 +9531,7 @@
         <v>52</v>
       </c>
       <c r="H158" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I158">
         <v>19.48495604</v>
@@ -9540,7 +9540,7 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K158" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L158">
         <v>2015</v>
@@ -9578,7 +9578,7 @@
         <v>53</v>
       </c>
       <c r="H159" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I159">
         <v>14.82209486</v>
@@ -9587,7 +9587,7 @@
         <v>46.11958061</v>
       </c>
       <c r="K159" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L159">
         <v>2015</v>
@@ -9625,7 +9625,7 @@
         <v>54</v>
       </c>
       <c r="H160" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I160">
         <v>-3.5540782960000001</v>
@@ -9634,7 +9634,7 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K160" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L160">
         <v>2015</v>
@@ -9672,7 +9672,7 @@
         <v>55</v>
       </c>
       <c r="H161" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I161">
         <v>14.3775338</v>
@@ -9681,7 +9681,7 @@
         <v>60.601031089999999</v>
       </c>
       <c r="K161" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L161">
         <v>2015</v>
@@ -9719,7 +9719,7 @@
         <v>56</v>
       </c>
       <c r="H162" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I162">
         <v>8.2231579999999997</v>
@@ -9728,7 +9728,7 @@
         <v>46.96617097</v>
       </c>
       <c r="K162" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L162">
         <v>2015</v>
@@ -9766,7 +9766,7 @@
         <v>59</v>
       </c>
       <c r="H163" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I163">
         <v>-2.2383053899999998</v>
@@ -9775,7 +9775,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K163" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L163">
         <v>2015</v>
@@ -9813,7 +9813,7 @@
         <v>79</v>
       </c>
       <c r="H164" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I164">
         <v>23.81380223</v>
@@ -9860,7 +9860,7 @@
         <v>81</v>
       </c>
       <c r="H165" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I165">
         <v>12.741982699999999</v>
@@ -9907,7 +9907,7 @@
         <v>87</v>
       </c>
       <c r="H166" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I166">
         <v>10.46535826</v>
@@ -9954,7 +9954,7 @@
         <v>88</v>
       </c>
       <c r="H167" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I167">
         <v>39.635052960000003</v>
@@ -10001,7 +10001,7 @@
         <v>95</v>
       </c>
       <c r="H168" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I168">
         <v>-5.5526900159999997</v>
@@ -10048,7 +10048,7 @@
         <v>96</v>
       </c>
       <c r="H169" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I169">
         <v>37.860968159999999</v>
@@ -10095,7 +10095,7 @@
         <v>100</v>
       </c>
       <c r="H170" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I170">
         <v>33.488462499999997</v>
@@ -10142,7 +10142,7 @@
         <v>101</v>
       </c>
       <c r="H171" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I171">
         <v>-3.5220160389999999</v>
@@ -10189,7 +10189,7 @@
         <v>104</v>
       </c>
       <c r="H172" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I172">
         <v>38.184799409999997</v>
@@ -10236,7 +10236,7 @@
         <v>105</v>
       </c>
       <c r="H173" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I173">
         <v>17.219078849999999</v>
@@ -10283,7 +10283,7 @@
         <v>106</v>
       </c>
       <c r="H174" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I174">
         <v>9.4001678769999995</v>
@@ -10330,7 +10330,7 @@
         <v>115</v>
       </c>
       <c r="H175" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I175">
         <v>24.671843549999998</v>
@@ -10377,7 +10377,7 @@
         <v>116</v>
       </c>
       <c r="H176" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I176">
         <v>29.86909584</v>
@@ -10424,7 +10424,7 @@
         <v>121</v>
       </c>
       <c r="H177" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I177">
         <v>34.805211819999997</v>
@@ -10471,7 +10471,7 @@
         <v>126</v>
       </c>
       <c r="H178" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I178">
         <v>-65.145632739999996</v>
@@ -10518,7 +10518,7 @@
         <v>129</v>
       </c>
       <c r="H179" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I179">
         <v>-64.662242840000005</v>
@@ -10565,7 +10565,7 @@
         <v>132</v>
       </c>
       <c r="H180" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I180">
         <v>-71.230290190000005</v>
@@ -10612,7 +10612,7 @@
         <v>134</v>
       </c>
       <c r="H181" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I181">
         <v>-84.197127820000006</v>
@@ -10659,7 +10659,7 @@
         <v>139</v>
       </c>
       <c r="H182" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I182">
         <v>-88.868629949999999</v>
@@ -10706,7 +10706,7 @@
         <v>141</v>
       </c>
       <c r="H183" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I183">
         <v>-91.231274600000006</v>
@@ -10753,7 +10753,7 @@
         <v>146</v>
       </c>
       <c r="H184" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I184">
         <v>-102.5148166</v>
@@ -10800,7 +10800,7 @@
         <v>147</v>
       </c>
       <c r="H185" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I185">
         <v>-85.030603150000005</v>
@@ -10847,7 +10847,7 @@
         <v>149</v>
       </c>
       <c r="H186" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I186">
         <v>-60.548542249999997</v>
@@ -10894,7 +10894,7 @@
         <v>156</v>
       </c>
       <c r="H187" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I187">
         <v>-56.013870249999997</v>
@@ -10941,7 +10941,7 @@
         <v>177</v>
       </c>
       <c r="H188" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I188">
         <v>35.428903290000001</v>
@@ -10950,7 +10950,7 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K188" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L188">
         <v>2015</v>
@@ -10988,7 +10988,7 @@
         <v>184</v>
       </c>
       <c r="H189" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I189">
         <v>120.86014179999999</v>
@@ -10997,7 +10997,7 @@
         <v>14.16591706</v>
       </c>
       <c r="K189" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L189">
         <v>2015</v>
@@ -11035,7 +11035,7 @@
         <v>188</v>
       </c>
       <c r="H190" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I190">
         <v>101.0202951</v>
@@ -11044,7 +11044,7 @@
         <v>15.13089239</v>
       </c>
       <c r="K190" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L190">
         <v>2015</v>
@@ -11082,7 +11082,7 @@
         <v>191</v>
       </c>
       <c r="H191" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I191">
         <v>127.8610254</v>
@@ -11091,7 +11091,7 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K191" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L191">
         <v>2015</v>
@@ -11129,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I192">
         <v>66.026881979999999</v>
@@ -11138,7 +11138,7 @@
         <v>33.831601990000003</v>
       </c>
       <c r="K192" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M192" s="1">
         <v>9</v>
@@ -11173,7 +11173,7 @@
         <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I193">
         <v>20.066609280000002</v>
@@ -11182,7 +11182,7 @@
         <v>41.138970069999999</v>
       </c>
       <c r="K193" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M193" s="1">
         <v>9</v>
@@ -11217,7 +11217,7 @@
         <v>61</v>
       </c>
       <c r="H194" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I194">
         <v>2.6781642269999999</v>
@@ -11226,7 +11226,7 @@
         <v>28.15940032</v>
       </c>
       <c r="K194" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M194" s="1">
         <v>9</v>
@@ -11261,7 +11261,7 @@
         <v>12</v>
       </c>
       <c r="H195" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I195">
         <v>1.5762574170000001</v>
@@ -11270,7 +11270,7 @@
         <v>42.545486109999999</v>
       </c>
       <c r="K195" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M195" s="1">
         <v>9</v>
@@ -11305,7 +11305,7 @@
         <v>78</v>
       </c>
       <c r="H196" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I196">
         <v>17.578170620000002</v>
@@ -11349,7 +11349,7 @@
         <v>125</v>
       </c>
       <c r="H197" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I197">
         <v>-61.799975500000002</v>
@@ -11393,7 +11393,7 @@
         <v>126</v>
       </c>
       <c r="H198" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I198">
         <v>-65.145632739999996</v>
@@ -11437,7 +11437,7 @@
         <v>159</v>
       </c>
       <c r="H199" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I199">
         <v>44.938393169999998</v>
@@ -11446,7 +11446,7 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K199" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M199" s="1">
         <v>9</v>
@@ -11481,7 +11481,7 @@
         <v>13</v>
       </c>
       <c r="H200" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I200">
         <v>134.34994119999999</v>
@@ -11490,7 +11490,7 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K200" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M200" s="1">
         <v>8</v>
@@ -11525,7 +11525,7 @@
         <v>15</v>
       </c>
       <c r="H201" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I201">
         <v>14.141724719999999</v>
@@ -11534,7 +11534,7 @@
         <v>47.58704857</v>
       </c>
       <c r="K201" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M201" s="1">
         <v>8</v>
@@ -11569,7 +11569,7 @@
         <v>158</v>
       </c>
       <c r="H202" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I202">
         <v>50.010647249999998</v>
@@ -11578,7 +11578,7 @@
         <v>40.392295439999998</v>
       </c>
       <c r="K202" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M202" s="1">
         <v>9</v>
@@ -11613,7 +11613,7 @@
         <v>127</v>
       </c>
       <c r="H203" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I203">
         <v>-78.051116629999996</v>
@@ -11657,7 +11657,7 @@
         <v>166</v>
       </c>
       <c r="H204" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I204">
         <v>50.5490754</v>
@@ -11666,7 +11666,7 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K204" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M204" s="1">
         <v>9</v>
@@ -11701,7 +11701,7 @@
         <v>3</v>
       </c>
       <c r="H205" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I205">
         <v>89.176607880000006</v>
@@ -11710,7 +11710,7 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K205" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M205" s="1">
         <v>9</v>
@@ -11745,7 +11745,7 @@
         <v>128</v>
       </c>
       <c r="H206" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I206">
         <v>-59.534648900000001</v>
@@ -11789,7 +11789,7 @@
         <v>19</v>
       </c>
       <c r="H207" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I207">
         <v>28.04940161</v>
@@ -11798,7 +11798,7 @@
         <v>53.541930749999999</v>
       </c>
       <c r="K207" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M207" s="1">
         <v>9</v>
@@ -11833,7 +11833,7 @@
         <v>16</v>
       </c>
       <c r="H208" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I208">
         <v>4.6609764560000002</v>
@@ -11842,7 +11842,7 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K208" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M208" s="1">
         <v>9</v>
@@ -11877,7 +11877,7 @@
         <v>131</v>
       </c>
       <c r="H209" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I209">
         <v>-88.701995539999999</v>
@@ -11921,7 +11921,7 @@
         <v>86</v>
       </c>
       <c r="H210" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I210">
         <v>2.3399335940000001</v>
@@ -11965,7 +11965,7 @@
         <v>4</v>
       </c>
       <c r="H211" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I211">
         <v>90.450984840000004</v>
@@ -11974,7 +11974,7 @@
         <v>27.395985679999999</v>
       </c>
       <c r="K211" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M211" s="1">
         <v>9</v>
@@ -12009,7 +12009,7 @@
         <v>129</v>
       </c>
       <c r="H212" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I212">
         <v>-64.662242840000005</v>
@@ -12053,7 +12053,7 @@
         <v>17</v>
       </c>
       <c r="H213" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I213">
         <v>17.785843320000001</v>
@@ -12062,7 +12062,7 @@
         <v>44.168455479999999</v>
       </c>
       <c r="K213" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M213" s="1">
         <v>9</v>
@@ -12097,7 +12097,7 @@
         <v>79</v>
       </c>
       <c r="H214" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I214">
         <v>23.81380223</v>
@@ -12141,7 +12141,7 @@
         <v>130</v>
       </c>
       <c r="H215" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I215">
         <v>-53.08432878</v>
@@ -12185,7 +12185,7 @@
         <v>18</v>
       </c>
       <c r="H216" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I216">
         <v>25.237631530000002</v>
@@ -12194,7 +12194,7 @@
         <v>42.757313230000001</v>
       </c>
       <c r="K216" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M216" s="1">
         <v>9</v>
@@ -12229,7 +12229,7 @@
         <v>122</v>
       </c>
       <c r="H217" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I217">
         <v>-1.7428438289999999</v>
@@ -12273,7 +12273,7 @@
         <v>80</v>
       </c>
       <c r="H218" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I218">
         <v>29.890809919999999</v>
@@ -12317,7 +12317,7 @@
         <v>82</v>
       </c>
       <c r="H219" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I219">
         <v>-23.63544151</v>
@@ -12361,7 +12361,7 @@
         <v>180</v>
       </c>
       <c r="H220" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I220">
         <v>104.922836</v>
@@ -12370,7 +12370,7 @@
         <v>12.71163737</v>
       </c>
       <c r="K220" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M220" s="1">
         <v>9</v>
@@ -12405,7 +12405,7 @@
         <v>81</v>
       </c>
       <c r="H221" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I221">
         <v>12.741982699999999</v>
@@ -12449,7 +12449,7 @@
         <v>20</v>
       </c>
       <c r="H222" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I222">
         <v>-101.6575058</v>
@@ -12458,7 +12458,7 @@
         <v>57.723601909999999</v>
       </c>
       <c r="K222" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M222" s="1">
         <v>8</v>
@@ -12493,7 +12493,7 @@
         <v>83</v>
       </c>
       <c r="H223" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I223">
         <v>18.666184009999998</v>
@@ -12537,7 +12537,7 @@
         <v>132</v>
       </c>
       <c r="H224" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I224">
         <v>-71.230290190000005</v>
@@ -12581,7 +12581,7 @@
         <v>189</v>
       </c>
       <c r="H225" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I225">
         <v>104.1403375</v>
@@ -12590,7 +12590,7 @@
         <v>32.309552170000003</v>
       </c>
       <c r="K225" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M225" s="1">
         <v>9</v>
@@ -12625,7 +12625,7 @@
         <v>133</v>
       </c>
       <c r="H226" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I226">
         <v>-73.074467510000005</v>
@@ -12669,7 +12669,7 @@
         <v>84</v>
       </c>
       <c r="H227" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I227">
         <v>15.220526120000001</v>
@@ -12713,7 +12713,7 @@
         <v>134</v>
       </c>
       <c r="H228" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I228">
         <v>-84.197127820000006</v>
@@ -12757,7 +12757,7 @@
         <v>95</v>
       </c>
       <c r="H229" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I229">
         <v>-5.5526900159999997</v>
@@ -12801,7 +12801,7 @@
         <v>21</v>
       </c>
       <c r="H230" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I230">
         <v>17.958745530000002</v>
@@ -12810,7 +12810,7 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K230" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M230" s="1">
         <v>8</v>
@@ -12845,7 +12845,7 @@
         <v>135</v>
       </c>
       <c r="H231" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I231">
         <v>-79.544601439999994</v>
@@ -12889,7 +12889,7 @@
         <v>22</v>
       </c>
       <c r="H232" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I232">
         <v>33.222859640000003</v>
@@ -12898,7 +12898,7 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K232" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M232" s="1">
         <v>8</v>
@@ -12930,10 +12930,10 @@
         <v>203</v>
       </c>
       <c r="G233" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H233" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I233">
         <v>15.33151382</v>
@@ -12942,7 +12942,7 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K233" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M233" s="1">
         <v>8</v>
@@ -12977,7 +12977,7 @@
         <v>190</v>
       </c>
       <c r="H234" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I234">
         <v>127.1803633</v>
@@ -12986,7 +12986,7 @@
         <v>40.146264500000001</v>
       </c>
       <c r="K234" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M234" s="1">
         <v>9</v>
@@ -13021,7 +13021,7 @@
         <v>85</v>
       </c>
       <c r="H235" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I235">
         <v>23.654965069999999</v>
@@ -13065,7 +13065,7 @@
         <v>23</v>
       </c>
       <c r="H236" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I236">
         <v>9.3265712829999998</v>
@@ -13074,7 +13074,7 @@
         <v>56.038297210000003</v>
       </c>
       <c r="K236" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M236" s="1">
         <v>9</v>
@@ -13109,7 +13109,7 @@
         <v>90</v>
       </c>
       <c r="H237" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I237">
         <v>42.182747069999998</v>
@@ -13153,7 +13153,7 @@
         <v>136</v>
       </c>
       <c r="H238" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I238">
         <v>-61.349375600000002</v>
@@ -13197,7 +13197,7 @@
         <v>137</v>
       </c>
       <c r="H239" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I239">
         <v>-70.498475760000005</v>
@@ -13241,7 +13241,7 @@
         <v>138</v>
       </c>
       <c r="H240" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I240">
         <v>-78.37005241</v>
@@ -13282,10 +13282,10 @@
         <v>818</v>
       </c>
       <c r="G241" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H241" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I241">
         <v>29.774685340000001</v>
@@ -13294,7 +13294,7 @@
         <v>26.57438204</v>
       </c>
       <c r="K241" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M241" s="1">
         <v>9</v>
@@ -13329,7 +13329,7 @@
         <v>139</v>
       </c>
       <c r="H242" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I242">
         <v>-88.868629949999999</v>
@@ -13373,7 +13373,7 @@
         <v>87</v>
       </c>
       <c r="H243" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I243">
         <v>10.46535826</v>
@@ -13417,7 +13417,7 @@
         <v>89</v>
       </c>
       <c r="H244" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I244">
         <v>38.110742889999997</v>
@@ -13461,7 +13461,7 @@
         <v>24</v>
       </c>
       <c r="H245" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I245">
         <v>25.84093481</v>
@@ -13470,7 +13470,7 @@
         <v>58.684871719999997</v>
       </c>
       <c r="K245" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M245" s="1">
         <v>8</v>
@@ -13505,7 +13505,7 @@
         <v>88</v>
       </c>
       <c r="H246" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I246">
         <v>39.635052960000003</v>
@@ -13549,7 +13549,7 @@
         <v>66</v>
       </c>
       <c r="H247" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I247">
         <v>177.96608839999999</v>
@@ -13558,7 +13558,7 @@
         <v>-17.833015660000001</v>
       </c>
       <c r="K247" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M247" s="1">
         <v>9</v>
@@ -13593,7 +13593,7 @@
         <v>25</v>
       </c>
       <c r="H248" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I248">
         <v>23.308447000000001</v>
@@ -13602,7 +13602,7 @@
         <v>61.915867380000002</v>
       </c>
       <c r="K248" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M248" s="1">
         <v>9</v>
@@ -13637,7 +13637,7 @@
         <v>26</v>
       </c>
       <c r="H249" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I249">
         <v>2.4572881290000002</v>
@@ -13646,7 +13646,7 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K249" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M249" s="1">
         <v>8</v>
@@ -13681,7 +13681,7 @@
         <v>91</v>
       </c>
       <c r="H250" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I250">
         <v>11.787277469999999</v>
@@ -13725,7 +13725,7 @@
         <v>92</v>
       </c>
       <c r="H251" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I251">
         <v>-15.39944785</v>
@@ -13769,7 +13769,7 @@
         <v>160</v>
       </c>
       <c r="H252" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I252">
         <v>43.371361499999999</v>
@@ -13778,7 +13778,7 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K252" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M252" s="1">
         <v>9</v>
@@ -13813,7 +13813,7 @@
         <v>27</v>
       </c>
       <c r="H253" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I253">
         <v>10.3806066</v>
@@ -13822,7 +13822,7 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K253" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M253" s="1">
         <v>8</v>
@@ -13857,7 +13857,7 @@
         <v>93</v>
       </c>
       <c r="H254" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I254">
         <v>-1.205623522</v>
@@ -13901,7 +13901,7 @@
         <v>28</v>
       </c>
       <c r="H255" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I255">
         <v>22.583078270000001</v>
@@ -13910,7 +13910,7 @@
         <v>39.47301873</v>
       </c>
       <c r="K255" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M255" s="1">
         <v>8</v>
@@ -13945,7 +13945,7 @@
         <v>140</v>
       </c>
       <c r="H256" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I256">
         <v>-61.682485679999999</v>
@@ -13989,7 +13989,7 @@
         <v>141</v>
       </c>
       <c r="H257" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I257">
         <v>-91.231274600000006</v>
@@ -14033,7 +14033,7 @@
         <v>94</v>
       </c>
       <c r="H258" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I258">
         <v>-11.28173419</v>
@@ -14077,7 +14077,7 @@
         <v>108</v>
       </c>
       <c r="H259" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I259">
         <v>-14.40182514</v>
@@ -14121,7 +14121,7 @@
         <v>142</v>
       </c>
       <c r="H260" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I260">
         <v>-58.97322037</v>
@@ -14165,7 +14165,7 @@
         <v>143</v>
       </c>
       <c r="H261" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I261">
         <v>-72.336409579999994</v>
@@ -14209,7 +14209,7 @@
         <v>144</v>
       </c>
       <c r="H262" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I262">
         <v>-86.599743810000007</v>
@@ -14253,7 +14253,7 @@
         <v>29</v>
       </c>
       <c r="H263" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I263">
         <v>19.412215190000001</v>
@@ -14262,7 +14262,7 @@
         <v>47.1651448</v>
       </c>
       <c r="K263" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M263" s="1">
         <v>8</v>
@@ -14297,7 +14297,7 @@
         <v>30</v>
       </c>
       <c r="H264" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I264">
         <v>-19.021169660000002</v>
@@ -14306,7 +14306,7 @@
         <v>64.791347630000004</v>
       </c>
       <c r="K264" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M264" s="1">
         <v>8</v>
@@ -14341,7 +14341,7 @@
         <v>6</v>
       </c>
       <c r="H265" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I265">
         <v>79.3608464</v>
@@ -14350,7 +14350,7 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K265" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M265" s="1">
         <v>9</v>
@@ -14385,7 +14385,7 @@
         <v>181</v>
       </c>
       <c r="H266" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I266">
         <v>113.9174</v>
@@ -14394,7 +14394,7 @@
         <v>-0.99458220399999997</v>
       </c>
       <c r="K266" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M266" s="1">
         <v>9</v>
@@ -14429,7 +14429,7 @@
         <v>7</v>
       </c>
       <c r="H267" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I267">
         <v>54.197663480000003</v>
@@ -14438,7 +14438,7 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K267" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M267" s="1">
         <v>9</v>
@@ -14473,7 +14473,7 @@
         <v>168</v>
       </c>
       <c r="H268" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I268">
         <v>43.766062669999997</v>
@@ -14482,7 +14482,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K268" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M268" s="1">
         <v>9</v>
@@ -14517,7 +14517,7 @@
         <v>31</v>
       </c>
       <c r="H269" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I269">
         <v>-7.1214252719999998</v>
@@ -14526,7 +14526,7 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K269" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M269" s="1">
         <v>9</v>
@@ -14561,7 +14561,7 @@
         <v>32</v>
       </c>
       <c r="H270" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I270">
         <v>34.622779919999999</v>
@@ -14570,7 +14570,7 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K270" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M270" s="1">
         <v>8</v>
@@ -14605,7 +14605,7 @@
         <v>33</v>
       </c>
       <c r="H271" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I271">
         <v>12.570224270000001</v>
@@ -14614,7 +14614,7 @@
         <v>42.799172820000003</v>
       </c>
       <c r="K271" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M271" s="1">
         <v>8</v>
@@ -14649,7 +14649,7 @@
         <v>145</v>
       </c>
       <c r="H272" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I272">
         <v>-77.310684089999995</v>
@@ -14693,7 +14693,7 @@
         <v>34</v>
       </c>
       <c r="H273" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I273">
         <v>139.27161029999999</v>
@@ -14702,7 +14702,7 @@
         <v>36.655453899999998</v>
       </c>
       <c r="K273" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M273" s="1">
         <v>9</v>
@@ -14737,7 +14737,7 @@
         <v>169</v>
       </c>
       <c r="H274" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I274">
         <v>37.130247740000001</v>
@@ -14746,7 +14746,7 @@
         <v>30.653659730000001</v>
       </c>
       <c r="K274" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M274" s="1">
         <v>9</v>
@@ -14781,7 +14781,7 @@
         <v>161</v>
       </c>
       <c r="H275" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I275">
         <v>66.653591590000005</v>
@@ -14790,7 +14790,7 @@
         <v>48.019634940000003</v>
       </c>
       <c r="K275" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M275" s="1">
         <v>9</v>
@@ -14825,7 +14825,7 @@
         <v>96</v>
       </c>
       <c r="H276" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I276">
         <v>37.860968159999999</v>
@@ -14869,7 +14869,7 @@
         <v>67</v>
       </c>
       <c r="H277" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I277">
         <v>-157.5643005</v>
@@ -14878,7 +14878,7 @@
         <v>1.7688377319999999</v>
       </c>
       <c r="K277" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M277" s="1">
         <v>9</v>
@@ -14913,7 +14913,7 @@
         <v>170</v>
       </c>
       <c r="H278" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I278">
         <v>47.493050289999999</v>
@@ -14922,7 +14922,7 @@
         <v>29.539494680000001</v>
       </c>
       <c r="K278" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M278" s="1">
         <v>9</v>
@@ -14957,7 +14957,7 @@
         <v>162</v>
       </c>
       <c r="H279" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I279">
         <v>74.523248390000006</v>
@@ -14966,7 +14966,7 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K279" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M279" s="1">
         <v>9</v>
@@ -15001,7 +15001,7 @@
         <v>182</v>
       </c>
       <c r="H280" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I280">
         <v>101.99019680000001</v>
@@ -15010,7 +15010,7 @@
         <v>20.274827729999998</v>
       </c>
       <c r="K280" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M280" s="1">
         <v>9</v>
@@ -15045,7 +15045,7 @@
         <v>35</v>
       </c>
       <c r="H281" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I281">
         <v>26.424618760000001</v>
@@ -15054,7 +15054,7 @@
         <v>56.641966359999998</v>
       </c>
       <c r="K281" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M281" s="1">
         <v>9</v>
@@ -15089,7 +15089,7 @@
         <v>171</v>
       </c>
       <c r="H282" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I282">
         <v>35.893917109999997</v>
@@ -15098,7 +15098,7 @@
         <v>33.921524580000003</v>
       </c>
       <c r="K282" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M282" s="1">
         <v>9</v>
@@ -15133,7 +15133,7 @@
         <v>97</v>
       </c>
       <c r="H283" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I283">
         <v>28.253621949999999</v>
@@ -15177,7 +15177,7 @@
         <v>98</v>
       </c>
       <c r="H284" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I284">
         <v>-9.3118790380000007</v>
@@ -15221,7 +15221,7 @@
         <v>62</v>
       </c>
       <c r="H285" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I285">
         <v>18.029598499999999</v>
@@ -15230,7 +15230,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K285" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M285" s="1">
         <v>9</v>
@@ -15265,7 +15265,7 @@
         <v>36</v>
       </c>
       <c r="H286" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I286">
         <v>9.5529850189999994</v>
@@ -15274,7 +15274,7 @@
         <v>47.141670050000002</v>
       </c>
       <c r="K286" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M286" s="1">
         <v>9</v>
@@ -15309,7 +15309,7 @@
         <v>37</v>
       </c>
       <c r="H287" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I287">
         <v>23.905178070000002</v>
@@ -15318,7 +15318,7 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K287" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M287" s="1">
         <v>8</v>
@@ -15353,7 +15353,7 @@
         <v>38</v>
       </c>
       <c r="H288" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I288">
         <v>6.0926565630000002</v>
@@ -15362,7 +15362,7 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K288" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M288" s="1">
         <v>8</v>
@@ -15397,7 +15397,7 @@
         <v>99</v>
       </c>
       <c r="H289" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I289">
         <v>46.698233899999998</v>
@@ -15441,7 +15441,7 @@
         <v>100</v>
       </c>
       <c r="H290" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I290">
         <v>33.488462499999997</v>
@@ -15485,7 +15485,7 @@
         <v>183</v>
       </c>
       <c r="H291" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I291">
         <v>116.83463140000001</v>
@@ -15494,7 +15494,7 @@
         <v>5.452415309</v>
       </c>
       <c r="K291" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M291" s="1">
         <v>9</v>
@@ -15529,7 +15529,7 @@
         <v>8</v>
       </c>
       <c r="H292" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I292">
         <v>73.096725460000002</v>
@@ -15538,7 +15538,7 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K292" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M292" s="1">
         <v>9</v>
@@ -15573,7 +15573,7 @@
         <v>101</v>
       </c>
       <c r="H293" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I293">
         <v>-3.5220160389999999</v>
@@ -15617,7 +15617,7 @@
         <v>39</v>
       </c>
       <c r="H294" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I294">
         <v>14.44617519</v>
@@ -15626,7 +15626,7 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K294" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M294" s="1">
         <v>8</v>
@@ -15661,7 +15661,7 @@
         <v>71</v>
       </c>
       <c r="H295" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I295">
         <v>171.0839119</v>
@@ -15670,7 +15670,7 @@
         <v>7.1102134970000002</v>
       </c>
       <c r="K295" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M295" s="1">
         <v>9</v>
@@ -15705,7 +15705,7 @@
         <v>102</v>
       </c>
       <c r="H296" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I296">
         <v>-10.33187259</v>
@@ -15749,7 +15749,7 @@
         <v>103</v>
       </c>
       <c r="H297" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I297">
         <v>57.568021999999999</v>
@@ -15793,7 +15793,7 @@
         <v>146</v>
       </c>
       <c r="H298" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I298">
         <v>-102.5148166</v>
@@ -15837,7 +15837,7 @@
         <v>70</v>
       </c>
       <c r="H299" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I299">
         <v>158.22521599999999</v>
@@ -15846,7 +15846,7 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K299" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M299" s="1">
         <v>9</v>
@@ -15881,7 +15881,7 @@
         <v>40</v>
       </c>
       <c r="H300" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I300">
         <v>7.4242148139999999</v>
@@ -15890,7 +15890,7 @@
         <v>43.735329180000001</v>
       </c>
       <c r="K300" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M300" s="1">
         <v>9</v>
@@ -15925,7 +15925,7 @@
         <v>192</v>
       </c>
       <c r="H301" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I301">
         <v>103.0728057</v>
@@ -15934,7 +15934,7 @@
         <v>46.838920539999997</v>
       </c>
       <c r="K301" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M301" s="1">
         <v>9</v>
@@ -15969,7 +15969,7 @@
         <v>42</v>
       </c>
       <c r="H302" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I302">
         <v>19.252140239999999</v>
@@ -15978,7 +15978,7 @@
         <v>42.787170430000003</v>
       </c>
       <c r="K302" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M302" s="1">
         <v>9</v>
@@ -16013,7 +16013,7 @@
         <v>63</v>
       </c>
       <c r="H303" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I303">
         <v>-6.2819428410000002</v>
@@ -16022,7 +16022,7 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K303" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M303" s="1">
         <v>9</v>
@@ -16057,7 +16057,7 @@
         <v>104</v>
       </c>
       <c r="H304" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I304">
         <v>38.184799409999997</v>
@@ -16101,7 +16101,7 @@
         <v>179</v>
       </c>
       <c r="H305" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I305">
         <v>96.51752295</v>
@@ -16110,7 +16110,7 @@
         <v>21.193328820000001</v>
       </c>
       <c r="K305" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M305" s="1">
         <v>9</v>
@@ -16145,7 +16145,7 @@
         <v>105</v>
       </c>
       <c r="H306" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I306">
         <v>17.219078849999999</v>
@@ -16189,7 +16189,7 @@
         <v>68</v>
       </c>
       <c r="H307" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I307">
         <v>166.92312999999999</v>
@@ -16198,7 +16198,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K307" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M307" s="1">
         <v>9</v>
@@ -16233,7 +16233,7 @@
         <v>9</v>
       </c>
       <c r="H308" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I308">
         <v>83.94678863</v>
@@ -16242,7 +16242,7 @@
         <v>28.25866332</v>
       </c>
       <c r="K308" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M308" s="1">
         <v>9</v>
@@ -16277,7 +16277,7 @@
         <v>43</v>
       </c>
       <c r="H309" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I309">
         <v>5.3314805679999999</v>
@@ -16286,7 +16286,7 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K309" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M309" s="1">
         <v>8</v>
@@ -16321,7 +16321,7 @@
         <v>44</v>
       </c>
       <c r="H310" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I310">
         <v>170.47556729999999</v>
@@ -16330,7 +16330,7 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K310" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M310" s="1">
         <v>8</v>
@@ -16365,7 +16365,7 @@
         <v>147</v>
       </c>
       <c r="H311" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I311">
         <v>-85.030603150000005</v>
@@ -16409,7 +16409,7 @@
         <v>106</v>
       </c>
       <c r="H312" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I312">
         <v>9.4001678769999995</v>
@@ -16453,7 +16453,7 @@
         <v>107</v>
       </c>
       <c r="H313" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I313">
         <v>8.0973632559999995</v>
@@ -16497,7 +16497,7 @@
         <v>58</v>
       </c>
       <c r="H314" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I314">
         <v>21.700790900000001</v>
@@ -16506,7 +16506,7 @@
         <v>41.600480679999997</v>
       </c>
       <c r="K314" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M314" s="1">
         <v>9</v>
@@ -16541,7 +16541,7 @@
         <v>45</v>
       </c>
       <c r="H315" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I315">
         <v>11.47846389</v>
@@ -16550,7 +16550,7 @@
         <v>61.34311134</v>
       </c>
       <c r="K315" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M315" s="1">
         <v>8</v>
@@ -16585,7 +16585,7 @@
         <v>172</v>
       </c>
       <c r="H316" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I316">
         <v>57.877434819999998</v>
@@ -16594,7 +16594,7 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K316" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M316" s="1">
         <v>9</v>
@@ -16629,7 +16629,7 @@
         <v>10</v>
       </c>
       <c r="H317" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I317">
         <v>68.804796839999995</v>
@@ -16638,7 +16638,7 @@
         <v>29.364916340000001</v>
       </c>
       <c r="K317" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M317" s="1">
         <v>9</v>
@@ -16673,7 +16673,7 @@
         <v>72</v>
       </c>
       <c r="H318" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I318">
         <v>134.57338780000001</v>
@@ -16682,7 +16682,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K318" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M318" s="1">
         <v>9</v>
@@ -16717,7 +16717,7 @@
         <v>148</v>
       </c>
       <c r="H319" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I319">
         <v>-81.266166229999996</v>
@@ -16761,7 +16761,7 @@
         <v>73</v>
       </c>
       <c r="H320" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I320">
         <v>145.8587761</v>
@@ -16770,7 +16770,7 @@
         <v>-6.7560570770000004</v>
       </c>
       <c r="K320" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M320" s="1">
         <v>9</v>
@@ -16805,7 +16805,7 @@
         <v>149</v>
       </c>
       <c r="H321" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I321">
         <v>-60.548542249999997</v>
@@ -16849,7 +16849,7 @@
         <v>150</v>
       </c>
       <c r="H322" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I322">
         <v>-71.820932769999999</v>
@@ -16893,7 +16893,7 @@
         <v>184</v>
       </c>
       <c r="H323" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I323">
         <v>120.86014179999999</v>
@@ -16902,7 +16902,7 @@
         <v>14.16591706</v>
       </c>
       <c r="K323" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M323" s="1">
         <v>8</v>
@@ -16937,7 +16937,7 @@
         <v>46</v>
       </c>
       <c r="H324" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I324">
         <v>19.40660158</v>
@@ -16946,7 +16946,7 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K324" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M324" s="1">
         <v>9</v>
@@ -16981,7 +16981,7 @@
         <v>47</v>
       </c>
       <c r="H325" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I325">
         <v>-7.9615998110000001</v>
@@ -16990,7 +16990,7 @@
         <v>39.68509315</v>
       </c>
       <c r="K325" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M325" s="1">
         <v>9</v>
@@ -17025,7 +17025,7 @@
         <v>173</v>
       </c>
       <c r="H326" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I326">
         <v>51.19152467</v>
@@ -17034,7 +17034,7 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K326" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M326" s="1">
         <v>9</v>
@@ -17069,7 +17069,7 @@
         <v>191</v>
       </c>
       <c r="H327" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I327">
         <v>127.8610254</v>
@@ -17078,7 +17078,7 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K327" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M327" s="1">
         <v>8</v>
@@ -17113,7 +17113,7 @@
         <v>41</v>
       </c>
       <c r="H328" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I328">
         <v>28.465062400000001</v>
@@ -17122,7 +17122,7 @@
         <v>47.202367950000003</v>
       </c>
       <c r="K328" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M328" s="1">
         <v>9</v>
@@ -17157,7 +17157,7 @@
         <v>48</v>
       </c>
       <c r="H329" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I329">
         <v>24.98481009</v>
@@ -17166,7 +17166,7 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K329" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M329" s="1">
         <v>8</v>
@@ -17201,7 +17201,7 @@
         <v>49</v>
       </c>
       <c r="H330" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I330">
         <v>99.014049259999993</v>
@@ -17210,7 +17210,7 @@
         <v>61.618998490000003</v>
       </c>
       <c r="K330" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M330" s="1">
         <v>9</v>
@@ -17245,7 +17245,7 @@
         <v>109</v>
       </c>
       <c r="H331" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I331">
         <v>29.923101939999999</v>
@@ -17289,7 +17289,7 @@
         <v>151</v>
       </c>
       <c r="H332" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I332">
         <v>-62.766286129999997</v>
@@ -17333,7 +17333,7 @@
         <v>152</v>
       </c>
       <c r="H333" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I333">
         <v>-60.965295529999999</v>
@@ -17377,7 +17377,7 @@
         <v>153</v>
       </c>
       <c r="H334" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I334">
         <v>-61.190243209999998</v>
@@ -17421,7 +17421,7 @@
         <v>76</v>
       </c>
       <c r="H335" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I335">
         <v>-172.4430749</v>
@@ -17430,7 +17430,7 @@
         <v>-13.61541469</v>
       </c>
       <c r="K335" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M335" s="1">
         <v>9</v>
@@ -17465,7 +17465,7 @@
         <v>50</v>
       </c>
       <c r="H336" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I336">
         <v>12.46329038</v>
@@ -17474,7 +17474,7 @@
         <v>43.938417659999999</v>
       </c>
       <c r="K336" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M336" s="1">
         <v>9</v>
@@ -17509,7 +17509,7 @@
         <v>110</v>
       </c>
       <c r="H337" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I337">
         <v>6.6097722650000001</v>
@@ -17553,7 +17553,7 @@
         <v>174</v>
       </c>
       <c r="H338" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I338">
         <v>44.547633470000001</v>
@@ -17562,7 +17562,7 @@
         <v>24.12594211</v>
       </c>
       <c r="K338" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M338" s="1">
         <v>9</v>
@@ -17597,7 +17597,7 @@
         <v>111</v>
       </c>
       <c r="H339" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I339">
         <v>-14.46636926</v>
@@ -17641,7 +17641,7 @@
         <v>51</v>
       </c>
       <c r="H340" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I340">
         <v>20.805876000000001</v>
@@ -17650,7 +17650,7 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K340" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M340" s="1">
         <v>9</v>
@@ -17685,7 +17685,7 @@
         <v>112</v>
       </c>
       <c r="H341" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I341">
         <v>55.465615909999997</v>
@@ -17729,7 +17729,7 @@
         <v>113</v>
       </c>
       <c r="H342" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I342">
         <v>-11.783065840000001</v>
@@ -17773,7 +17773,7 @@
         <v>186</v>
       </c>
       <c r="H343" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I343">
         <v>103.8107883</v>
@@ -17782,7 +17782,7 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K343" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M343" s="1">
         <v>9</v>
@@ -17817,7 +17817,7 @@
         <v>52</v>
       </c>
       <c r="H344" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I344">
         <v>19.48495604</v>
@@ -17826,7 +17826,7 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K344" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M344" s="1">
         <v>8</v>
@@ -17861,7 +17861,7 @@
         <v>53</v>
       </c>
       <c r="H345" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I345">
         <v>14.82209486</v>
@@ -17870,7 +17870,7 @@
         <v>46.11958061</v>
       </c>
       <c r="K345" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M345" s="1">
         <v>8</v>
@@ -17905,7 +17905,7 @@
         <v>65</v>
       </c>
       <c r="H346" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I346">
         <v>160.15841169999999</v>
@@ -17914,7 +17914,7 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K346" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M346" s="1">
         <v>9</v>
@@ -17949,7 +17949,7 @@
         <v>114</v>
       </c>
       <c r="H347" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I347">
         <v>46.203674769999999</v>
@@ -17993,7 +17993,7 @@
         <v>115</v>
       </c>
       <c r="H348" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I348">
         <v>24.671843549999998</v>
@@ -18037,7 +18037,7 @@
         <v>117</v>
       </c>
       <c r="H349" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I349">
         <v>30.326187730000001</v>
@@ -18081,7 +18081,7 @@
         <v>54</v>
       </c>
       <c r="H350" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I350">
         <v>-3.5540782960000001</v>
@@ -18090,7 +18090,7 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K350" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M350" s="1">
         <v>8</v>
@@ -18125,7 +18125,7 @@
         <v>5</v>
       </c>
       <c r="H351" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I351">
         <v>80.704896539999993</v>
@@ -18134,7 +18134,7 @@
         <v>7.6146933429999999</v>
       </c>
       <c r="K351" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M351" s="1">
         <v>9</v>
@@ -18169,7 +18169,7 @@
         <v>167</v>
       </c>
       <c r="H352" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I352">
         <v>35.256941220000002</v>
@@ -18178,7 +18178,7 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K352" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M352" s="1">
         <v>9</v>
@@ -18213,7 +18213,7 @@
         <v>118</v>
       </c>
       <c r="H353" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I353">
         <v>29.956501589999998</v>
@@ -18222,7 +18222,7 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K353" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M353" s="1">
         <v>9</v>
@@ -18257,7 +18257,7 @@
         <v>154</v>
       </c>
       <c r="H354" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I354">
         <v>-55.906263940000002</v>
@@ -18298,10 +18298,10 @@
         <v>748</v>
       </c>
       <c r="G355" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H355" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I355">
         <v>31.501492880000001</v>
@@ -18345,7 +18345,7 @@
         <v>55</v>
       </c>
       <c r="H356" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I356">
         <v>14.3775338</v>
@@ -18354,7 +18354,7 @@
         <v>60.601031089999999</v>
       </c>
       <c r="K356" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M356" s="1">
         <v>8</v>
@@ -18389,7 +18389,7 @@
         <v>56</v>
       </c>
       <c r="H357" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I357">
         <v>8.2231579999999997</v>
@@ -18398,7 +18398,7 @@
         <v>46.96617097</v>
       </c>
       <c r="K357" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M357" s="1">
         <v>8</v>
@@ -18433,7 +18433,7 @@
         <v>175</v>
       </c>
       <c r="H358" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I358">
         <v>38.50466565</v>
@@ -18442,7 +18442,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K358" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M358" s="1">
         <v>9</v>
@@ -18477,7 +18477,7 @@
         <v>163</v>
       </c>
       <c r="H359" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I359">
         <v>69.294998000000007</v>
@@ -18486,7 +18486,7 @@
         <v>38.430696660000002</v>
       </c>
       <c r="K359" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M359" s="1">
         <v>9</v>
@@ -18521,7 +18521,7 @@
         <v>188</v>
       </c>
       <c r="H360" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I360">
         <v>101.0202951</v>
@@ -18530,7 +18530,7 @@
         <v>15.13089239</v>
       </c>
       <c r="K360" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M360" s="1">
         <v>8</v>
@@ -18565,7 +18565,7 @@
         <v>185</v>
       </c>
       <c r="H361" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I361">
         <v>125.9451052</v>
@@ -18574,7 +18574,7 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K361" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M361" s="1">
         <v>9</v>
@@ -18609,7 +18609,7 @@
         <v>119</v>
       </c>
       <c r="H362" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I362">
         <v>0.97835764999999997</v>
@@ -18653,7 +18653,7 @@
         <v>74</v>
       </c>
       <c r="H363" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I363">
         <v>-175.19599909999999</v>
@@ -18662,7 +18662,7 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K363" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M363" s="1">
         <v>9</v>
@@ -18697,7 +18697,7 @@
         <v>155</v>
       </c>
       <c r="H364" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I364">
         <v>-61.293895040000002</v>
@@ -18741,7 +18741,7 @@
         <v>64</v>
       </c>
       <c r="H365" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I365">
         <v>9.5727374110000003</v>
@@ -18750,7 +18750,7 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K365" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M365" s="1">
         <v>9</v>
@@ -18785,7 +18785,7 @@
         <v>177</v>
       </c>
       <c r="H366" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I366">
         <v>35.428903290000001</v>
@@ -18794,7 +18794,7 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K366" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M366" s="1">
         <v>8</v>
@@ -18829,7 +18829,7 @@
         <v>164</v>
       </c>
       <c r="H367" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I367">
         <v>58.978766499999999</v>
@@ -18838,7 +18838,7 @@
         <v>40.0912346</v>
       </c>
       <c r="K367" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M367" s="1">
         <v>9</v>
@@ -18873,7 +18873,7 @@
         <v>75</v>
       </c>
       <c r="H368" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I368">
         <v>178.66796110000001</v>
@@ -18882,7 +18882,7 @@
         <v>-7.4600480710000001</v>
       </c>
       <c r="K368" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M368" s="1">
         <v>9</v>
@@ -18917,7 +18917,7 @@
         <v>120</v>
       </c>
       <c r="H369" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I369">
         <v>32.391004379999998</v>
@@ -18961,7 +18961,7 @@
         <v>57</v>
       </c>
       <c r="H370" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I370">
         <v>31.402708019999999</v>
@@ -18970,7 +18970,7 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K370" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M370" s="1">
         <v>9</v>
@@ -19005,7 +19005,7 @@
         <v>176</v>
       </c>
       <c r="H371" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I371">
         <v>53.982791589999998</v>
@@ -19014,7 +19014,7 @@
         <v>23.433222189999999</v>
       </c>
       <c r="K371" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M371" s="1">
         <v>9</v>
@@ -19049,7 +19049,7 @@
         <v>59</v>
       </c>
       <c r="H372" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I372">
         <v>-2.2383053899999998</v>
@@ -19058,7 +19058,7 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K372" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M372" s="1">
         <v>8</v>
@@ -19093,7 +19093,7 @@
         <v>121</v>
       </c>
       <c r="H373" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I373">
         <v>34.805211819999997</v>
@@ -19137,7 +19137,7 @@
         <v>60</v>
       </c>
       <c r="H374" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I374">
         <v>-99.138303109999995</v>
@@ -19146,7 +19146,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K374" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M374" s="1">
         <v>9</v>
@@ -19181,7 +19181,7 @@
         <v>156</v>
       </c>
       <c r="H375" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I375">
         <v>-56.013870249999997</v>
@@ -19225,7 +19225,7 @@
         <v>165</v>
       </c>
       <c r="H376" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I376">
         <v>63.119445579999997</v>
@@ -19234,7 +19234,7 @@
         <v>41.775605179999999</v>
       </c>
       <c r="K376" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M376" s="1">
         <v>9</v>
@@ -19269,7 +19269,7 @@
         <v>69</v>
       </c>
       <c r="H377" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I377">
         <v>167.06797789999999</v>
@@ -19278,7 +19278,7 @@
         <v>-15.34445547</v>
       </c>
       <c r="K377" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M377" s="1">
         <v>9</v>
@@ -19313,7 +19313,7 @@
         <v>157</v>
       </c>
       <c r="H378" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I378">
         <v>-66.156420839999996</v>
@@ -19357,7 +19357,7 @@
         <v>187</v>
       </c>
       <c r="H379" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I379">
         <v>105.802499</v>
@@ -19366,7 +19366,7 @@
         <v>10.096430789999999</v>
       </c>
       <c r="K379" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M379" s="1">
         <v>9</v>
@@ -19401,7 +19401,7 @@
         <v>178</v>
       </c>
       <c r="H380" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I380">
         <v>45.223891430000002</v>
@@ -19410,7 +19410,7 @@
         <v>15.22242099</v>
       </c>
       <c r="K380" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M380" s="1">
         <v>9</v>
@@ -19445,7 +19445,7 @@
         <v>123</v>
       </c>
       <c r="H381" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I381">
         <v>27.850328999999999</v>
@@ -19489,7 +19489,7 @@
         <v>116</v>
       </c>
       <c r="H382" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I382">
         <v>29.86909584</v>
@@ -19522,6 +19522,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -19744,24 +19761,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D47D62B-7909-46BE-AE91-4EE1A69B85E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DB1FA3B-619F-4E10-B684-BF0813B418AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{911D62B3-8351-49F1-A8DA-5D750131BE07}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19778,22 +19796,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DB1FA3B-619F-4E10-B684-BF0813B418AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D47D62B-7909-46BE-AE91-4EE1A69B85E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/source_data/Qual_6_data.xlsx
+++ b/source_data/Qual_6_data.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\gender_data_portal\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95381362-74C6-4E93-9186-8908AB5D5BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A16007-16CC-4F4C-8FE5-FC96E8063CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 - Presence of a gender quota " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6 - Presence of a gender quota '!$E$1:$N$382</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6 - Presence of a gender quota '!$A$1:$O$382</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2106,10 +2106,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="L378" sqref="L378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11140,6 +11140,9 @@
       <c r="K192" t="s">
         <v>198</v>
       </c>
+      <c r="L192">
+        <v>2019</v>
+      </c>
       <c r="M192" s="1">
         <v>9</v>
       </c>
@@ -11184,6 +11187,9 @@
       <c r="K193" t="s">
         <v>208</v>
       </c>
+      <c r="L193">
+        <v>2019</v>
+      </c>
       <c r="M193" s="1">
         <v>9</v>
       </c>
@@ -11228,6 +11234,9 @@
       <c r="K194" t="s">
         <v>220</v>
       </c>
+      <c r="L194">
+        <v>2019</v>
+      </c>
       <c r="M194" s="1">
         <v>9</v>
       </c>
@@ -11272,6 +11281,9 @@
       <c r="K195" t="s">
         <v>208</v>
       </c>
+      <c r="L195">
+        <v>2019</v>
+      </c>
       <c r="M195" s="1">
         <v>9</v>
       </c>
@@ -11316,6 +11328,9 @@
       <c r="K196" t="s">
         <v>77</v>
       </c>
+      <c r="L196">
+        <v>2019</v>
+      </c>
       <c r="M196" s="1">
         <v>9</v>
       </c>
@@ -11360,6 +11375,9 @@
       <c r="K197" t="s">
         <v>124</v>
       </c>
+      <c r="L197">
+        <v>2019</v>
+      </c>
       <c r="M197" s="1">
         <v>9</v>
       </c>
@@ -11404,6 +11422,9 @@
       <c r="K198" t="s">
         <v>124</v>
       </c>
+      <c r="L198">
+        <v>2019</v>
+      </c>
       <c r="M198" s="1">
         <v>8</v>
       </c>
@@ -11448,6 +11469,9 @@
       <c r="K199" t="s">
         <v>220</v>
       </c>
+      <c r="L199">
+        <v>2019</v>
+      </c>
       <c r="M199" s="1">
         <v>9</v>
       </c>
@@ -11492,6 +11516,9 @@
       <c r="K200" t="s">
         <v>211</v>
       </c>
+      <c r="L200">
+        <v>2019</v>
+      </c>
       <c r="M200" s="1">
         <v>8</v>
       </c>
@@ -11536,6 +11563,9 @@
       <c r="K201" t="s">
         <v>208</v>
       </c>
+      <c r="L201">
+        <v>2019</v>
+      </c>
       <c r="M201" s="1">
         <v>8</v>
       </c>
@@ -11580,6 +11610,9 @@
       <c r="K202" t="s">
         <v>220</v>
       </c>
+      <c r="L202">
+        <v>2019</v>
+      </c>
       <c r="M202" s="1">
         <v>9</v>
       </c>
@@ -11624,6 +11657,9 @@
       <c r="K203" t="s">
         <v>124</v>
       </c>
+      <c r="L203">
+        <v>2019</v>
+      </c>
       <c r="M203" s="1">
         <v>9</v>
       </c>
@@ -11668,6 +11704,9 @@
       <c r="K204" t="s">
         <v>220</v>
       </c>
+      <c r="L204">
+        <v>2019</v>
+      </c>
       <c r="M204" s="1">
         <v>9</v>
       </c>
@@ -11712,6 +11751,9 @@
       <c r="K205" t="s">
         <v>198</v>
       </c>
+      <c r="L205">
+        <v>2019</v>
+      </c>
       <c r="M205" s="1">
         <v>9</v>
       </c>
@@ -11756,6 +11798,9 @@
       <c r="K206" t="s">
         <v>124</v>
       </c>
+      <c r="L206">
+        <v>2019</v>
+      </c>
       <c r="M206" s="1">
         <v>9</v>
       </c>
@@ -11800,6 +11845,9 @@
       <c r="K207" t="s">
         <v>208</v>
       </c>
+      <c r="L207">
+        <v>2019</v>
+      </c>
       <c r="M207" s="1">
         <v>9</v>
       </c>
@@ -11844,6 +11892,9 @@
       <c r="K208" t="s">
         <v>208</v>
       </c>
+      <c r="L208">
+        <v>2019</v>
+      </c>
       <c r="M208" s="1">
         <v>9</v>
       </c>
@@ -11888,6 +11939,9 @@
       <c r="K209" t="s">
         <v>124</v>
       </c>
+      <c r="L209">
+        <v>2019</v>
+      </c>
       <c r="M209" s="1">
         <v>9</v>
       </c>
@@ -11932,6 +11986,9 @@
       <c r="K210" t="s">
         <v>77</v>
       </c>
+      <c r="L210">
+        <v>2019</v>
+      </c>
       <c r="M210" s="1">
         <v>9</v>
       </c>
@@ -11976,6 +12033,9 @@
       <c r="K211" t="s">
         <v>198</v>
       </c>
+      <c r="L211">
+        <v>2019</v>
+      </c>
       <c r="M211" s="1">
         <v>9</v>
       </c>
@@ -12020,6 +12080,9 @@
       <c r="K212" t="s">
         <v>124</v>
       </c>
+      <c r="L212">
+        <v>2019</v>
+      </c>
       <c r="M212" s="1">
         <v>8</v>
       </c>
@@ -12064,6 +12127,9 @@
       <c r="K213" t="s">
         <v>208</v>
       </c>
+      <c r="L213">
+        <v>2019</v>
+      </c>
       <c r="M213" s="1">
         <v>9</v>
       </c>
@@ -12108,6 +12174,9 @@
       <c r="K214" t="s">
         <v>77</v>
       </c>
+      <c r="L214">
+        <v>2019</v>
+      </c>
       <c r="M214" s="1">
         <v>8</v>
       </c>
@@ -12152,6 +12221,9 @@
       <c r="K215" t="s">
         <v>124</v>
       </c>
+      <c r="L215">
+        <v>2019</v>
+      </c>
       <c r="M215" s="1">
         <v>8</v>
       </c>
@@ -12196,6 +12268,9 @@
       <c r="K216" t="s">
         <v>208</v>
       </c>
+      <c r="L216">
+        <v>2019</v>
+      </c>
       <c r="M216" s="1">
         <v>9</v>
       </c>
@@ -12240,6 +12315,9 @@
       <c r="K217" t="s">
         <v>77</v>
       </c>
+      <c r="L217">
+        <v>2019</v>
+      </c>
       <c r="M217" s="1">
         <v>9</v>
       </c>
@@ -12284,6 +12362,9 @@
       <c r="K218" t="s">
         <v>77</v>
       </c>
+      <c r="L218">
+        <v>2019</v>
+      </c>
       <c r="M218" s="1">
         <v>9</v>
       </c>
@@ -12328,6 +12409,9 @@
       <c r="K219" t="s">
         <v>77</v>
       </c>
+      <c r="L219">
+        <v>2019</v>
+      </c>
       <c r="M219" s="1">
         <v>9</v>
       </c>
@@ -12372,6 +12456,9 @@
       <c r="K220" t="s">
         <v>234</v>
       </c>
+      <c r="L220">
+        <v>2019</v>
+      </c>
       <c r="M220" s="1">
         <v>9</v>
       </c>
@@ -12416,6 +12503,9 @@
       <c r="K221" t="s">
         <v>77</v>
       </c>
+      <c r="L221">
+        <v>2019</v>
+      </c>
       <c r="M221" s="1">
         <v>8</v>
       </c>
@@ -12460,6 +12550,9 @@
       <c r="K222" t="s">
         <v>208</v>
       </c>
+      <c r="L222">
+        <v>2019</v>
+      </c>
       <c r="M222" s="1">
         <v>8</v>
       </c>
@@ -12504,6 +12597,9 @@
       <c r="K223" t="s">
         <v>77</v>
       </c>
+      <c r="L223">
+        <v>2019</v>
+      </c>
       <c r="M223" s="1">
         <v>9</v>
       </c>
@@ -12548,6 +12644,9 @@
       <c r="K224" t="s">
         <v>124</v>
       </c>
+      <c r="L224">
+        <v>2019</v>
+      </c>
       <c r="M224" s="1">
         <v>8</v>
       </c>
@@ -12592,6 +12691,9 @@
       <c r="K225" t="s">
         <v>234</v>
       </c>
+      <c r="L225">
+        <v>2019</v>
+      </c>
       <c r="M225" s="1">
         <v>9</v>
       </c>
@@ -12636,6 +12738,9 @@
       <c r="K226" t="s">
         <v>124</v>
       </c>
+      <c r="L226">
+        <v>2019</v>
+      </c>
       <c r="M226" s="1">
         <v>9</v>
       </c>
@@ -12680,6 +12785,9 @@
       <c r="K227" t="s">
         <v>77</v>
       </c>
+      <c r="L227">
+        <v>2019</v>
+      </c>
       <c r="M227" s="1">
         <v>9</v>
       </c>
@@ -12724,6 +12832,9 @@
       <c r="K228" t="s">
         <v>124</v>
       </c>
+      <c r="L228">
+        <v>2019</v>
+      </c>
       <c r="M228" s="1">
         <v>8</v>
       </c>
@@ -12768,6 +12879,9 @@
       <c r="K229" t="s">
         <v>77</v>
       </c>
+      <c r="L229">
+        <v>2019</v>
+      </c>
       <c r="M229" s="1">
         <v>8</v>
       </c>
@@ -12812,6 +12926,9 @@
       <c r="K230" t="s">
         <v>208</v>
       </c>
+      <c r="L230">
+        <v>2019</v>
+      </c>
       <c r="M230" s="1">
         <v>8</v>
       </c>
@@ -12856,6 +12973,9 @@
       <c r="K231" t="s">
         <v>124</v>
       </c>
+      <c r="L231">
+        <v>2019</v>
+      </c>
       <c r="M231" s="1">
         <v>9</v>
       </c>
@@ -12900,6 +13020,9 @@
       <c r="K232" t="s">
         <v>220</v>
       </c>
+      <c r="L232">
+        <v>2019</v>
+      </c>
       <c r="M232" s="1">
         <v>8</v>
       </c>
@@ -12944,6 +13067,9 @@
       <c r="K233" t="s">
         <v>208</v>
       </c>
+      <c r="L233">
+        <v>2019</v>
+      </c>
       <c r="M233" s="1">
         <v>8</v>
       </c>
@@ -12988,6 +13114,9 @@
       <c r="K234" t="s">
         <v>234</v>
       </c>
+      <c r="L234">
+        <v>2019</v>
+      </c>
       <c r="M234" s="1">
         <v>9</v>
       </c>
@@ -13032,6 +13161,9 @@
       <c r="K235" t="s">
         <v>77</v>
       </c>
+      <c r="L235">
+        <v>2019</v>
+      </c>
       <c r="M235" s="1">
         <v>9</v>
       </c>
@@ -13076,6 +13208,9 @@
       <c r="K236" t="s">
         <v>208</v>
       </c>
+      <c r="L236">
+        <v>2019</v>
+      </c>
       <c r="M236" s="1">
         <v>9</v>
       </c>
@@ -13120,6 +13255,9 @@
       <c r="K237" t="s">
         <v>77</v>
       </c>
+      <c r="L237">
+        <v>2019</v>
+      </c>
       <c r="M237" s="1">
         <v>9</v>
       </c>
@@ -13164,6 +13302,9 @@
       <c r="K238" t="s">
         <v>124</v>
       </c>
+      <c r="L238">
+        <v>2019</v>
+      </c>
       <c r="M238" s="1">
         <v>9</v>
       </c>
@@ -13208,6 +13349,9 @@
       <c r="K239" t="s">
         <v>124</v>
       </c>
+      <c r="L239">
+        <v>2019</v>
+      </c>
       <c r="M239" s="1">
         <v>9</v>
       </c>
@@ -13252,6 +13396,9 @@
       <c r="K240" t="s">
         <v>124</v>
       </c>
+      <c r="L240">
+        <v>2019</v>
+      </c>
       <c r="M240" s="1">
         <v>9</v>
       </c>
@@ -13296,6 +13443,9 @@
       <c r="K241" t="s">
         <v>220</v>
       </c>
+      <c r="L241">
+        <v>2019</v>
+      </c>
       <c r="M241" s="1">
         <v>9</v>
       </c>
@@ -13340,6 +13490,9 @@
       <c r="K242" t="s">
         <v>124</v>
       </c>
+      <c r="L242">
+        <v>2019</v>
+      </c>
       <c r="M242" s="1">
         <v>8</v>
       </c>
@@ -13384,6 +13537,9 @@
       <c r="K243" t="s">
         <v>77</v>
       </c>
+      <c r="L243">
+        <v>2019</v>
+      </c>
       <c r="M243" s="1">
         <v>8</v>
       </c>
@@ -13428,6 +13584,9 @@
       <c r="K244" t="s">
         <v>77</v>
       </c>
+      <c r="L244">
+        <v>2019</v>
+      </c>
       <c r="M244" s="1">
         <v>9</v>
       </c>
@@ -13472,6 +13631,9 @@
       <c r="K245" t="s">
         <v>208</v>
       </c>
+      <c r="L245">
+        <v>2019</v>
+      </c>
       <c r="M245" s="1">
         <v>8</v>
       </c>
@@ -13516,6 +13678,9 @@
       <c r="K246" t="s">
         <v>77</v>
       </c>
+      <c r="L246">
+        <v>2019</v>
+      </c>
       <c r="M246" s="1">
         <v>8</v>
       </c>
@@ -13560,6 +13725,9 @@
       <c r="K247" t="s">
         <v>266</v>
       </c>
+      <c r="L247">
+        <v>2019</v>
+      </c>
       <c r="M247" s="1">
         <v>9</v>
       </c>
@@ -13604,6 +13772,9 @@
       <c r="K248" t="s">
         <v>208</v>
       </c>
+      <c r="L248">
+        <v>2019</v>
+      </c>
       <c r="M248" s="1">
         <v>9</v>
       </c>
@@ -13648,6 +13819,9 @@
       <c r="K249" t="s">
         <v>208</v>
       </c>
+      <c r="L249">
+        <v>2019</v>
+      </c>
       <c r="M249" s="1">
         <v>8</v>
       </c>
@@ -13692,6 +13866,9 @@
       <c r="K250" t="s">
         <v>77</v>
       </c>
+      <c r="L250">
+        <v>2019</v>
+      </c>
       <c r="M250" s="1">
         <v>9</v>
       </c>
@@ -13736,6 +13913,9 @@
       <c r="K251" t="s">
         <v>77</v>
       </c>
+      <c r="L251">
+        <v>2019</v>
+      </c>
       <c r="M251" s="1">
         <v>9</v>
       </c>
@@ -13780,6 +13960,9 @@
       <c r="K252" t="s">
         <v>220</v>
       </c>
+      <c r="L252">
+        <v>2019</v>
+      </c>
       <c r="M252" s="1">
         <v>9</v>
       </c>
@@ -13824,6 +14007,9 @@
       <c r="K253" t="s">
         <v>208</v>
       </c>
+      <c r="L253">
+        <v>2019</v>
+      </c>
       <c r="M253" s="1">
         <v>8</v>
       </c>
@@ -13868,6 +14054,9 @@
       <c r="K254" t="s">
         <v>77</v>
       </c>
+      <c r="L254">
+        <v>2019</v>
+      </c>
       <c r="M254" s="1">
         <v>9</v>
       </c>
@@ -13912,6 +14101,9 @@
       <c r="K255" t="s">
         <v>208</v>
       </c>
+      <c r="L255">
+        <v>2019</v>
+      </c>
       <c r="M255" s="1">
         <v>8</v>
       </c>
@@ -13956,6 +14148,9 @@
       <c r="K256" t="s">
         <v>124</v>
       </c>
+      <c r="L256">
+        <v>2019</v>
+      </c>
       <c r="M256" s="1">
         <v>9</v>
       </c>
@@ -14000,6 +14195,9 @@
       <c r="K257" t="s">
         <v>124</v>
       </c>
+      <c r="L257">
+        <v>2019</v>
+      </c>
       <c r="M257" s="1">
         <v>8</v>
       </c>
@@ -14044,6 +14242,9 @@
       <c r="K258" t="s">
         <v>77</v>
       </c>
+      <c r="L258">
+        <v>2019</v>
+      </c>
       <c r="M258" s="1">
         <v>9</v>
       </c>
@@ -14088,6 +14289,9 @@
       <c r="K259" t="s">
         <v>77</v>
       </c>
+      <c r="L259">
+        <v>2019</v>
+      </c>
       <c r="M259" s="1">
         <v>9</v>
       </c>
@@ -14132,6 +14336,9 @@
       <c r="K260" t="s">
         <v>124</v>
       </c>
+      <c r="L260">
+        <v>2019</v>
+      </c>
       <c r="M260" s="1">
         <v>9</v>
       </c>
@@ -14176,6 +14383,9 @@
       <c r="K261" t="s">
         <v>124</v>
       </c>
+      <c r="L261">
+        <v>2019</v>
+      </c>
       <c r="M261" s="1">
         <v>9</v>
       </c>
@@ -14220,6 +14430,9 @@
       <c r="K262" t="s">
         <v>124</v>
       </c>
+      <c r="L262">
+        <v>2019</v>
+      </c>
       <c r="M262" s="1">
         <v>9</v>
       </c>
@@ -14264,6 +14477,9 @@
       <c r="K263" t="s">
         <v>208</v>
       </c>
+      <c r="L263">
+        <v>2019</v>
+      </c>
       <c r="M263" s="1">
         <v>8</v>
       </c>
@@ -14308,6 +14524,9 @@
       <c r="K264" t="s">
         <v>208</v>
       </c>
+      <c r="L264">
+        <v>2019</v>
+      </c>
       <c r="M264" s="1">
         <v>8</v>
       </c>
@@ -14352,6 +14571,9 @@
       <c r="K265" t="s">
         <v>198</v>
       </c>
+      <c r="L265">
+        <v>2019</v>
+      </c>
       <c r="M265" s="1">
         <v>9</v>
       </c>
@@ -14396,6 +14618,9 @@
       <c r="K266" t="s">
         <v>234</v>
       </c>
+      <c r="L266">
+        <v>2019</v>
+      </c>
       <c r="M266" s="1">
         <v>9</v>
       </c>
@@ -14440,6 +14665,9 @@
       <c r="K267" t="s">
         <v>198</v>
       </c>
+      <c r="L267">
+        <v>2019</v>
+      </c>
       <c r="M267" s="1">
         <v>9</v>
       </c>
@@ -14484,6 +14712,9 @@
       <c r="K268" t="s">
         <v>220</v>
       </c>
+      <c r="L268">
+        <v>2019</v>
+      </c>
       <c r="M268" s="1">
         <v>9</v>
       </c>
@@ -14528,6 +14759,9 @@
       <c r="K269" t="s">
         <v>208</v>
       </c>
+      <c r="L269">
+        <v>2019</v>
+      </c>
       <c r="M269" s="1">
         <v>9</v>
       </c>
@@ -14572,6 +14806,9 @@
       <c r="K270" t="s">
         <v>220</v>
       </c>
+      <c r="L270">
+        <v>2019</v>
+      </c>
       <c r="M270" s="1">
         <v>8</v>
       </c>
@@ -14616,6 +14853,9 @@
       <c r="K271" t="s">
         <v>208</v>
       </c>
+      <c r="L271">
+        <v>2019</v>
+      </c>
       <c r="M271" s="1">
         <v>8</v>
       </c>
@@ -14660,6 +14900,9 @@
       <c r="K272" t="s">
         <v>124</v>
       </c>
+      <c r="L272">
+        <v>2019</v>
+      </c>
       <c r="M272" s="1">
         <v>9</v>
       </c>
@@ -14704,6 +14947,9 @@
       <c r="K273" t="s">
         <v>234</v>
       </c>
+      <c r="L273">
+        <v>2019</v>
+      </c>
       <c r="M273" s="1">
         <v>9</v>
       </c>
@@ -14748,6 +14994,9 @@
       <c r="K274" t="s">
         <v>220</v>
       </c>
+      <c r="L274">
+        <v>2019</v>
+      </c>
       <c r="M274" s="1">
         <v>9</v>
       </c>
@@ -14792,6 +15041,9 @@
       <c r="K275" t="s">
         <v>198</v>
       </c>
+      <c r="L275">
+        <v>2019</v>
+      </c>
       <c r="M275" s="1">
         <v>9</v>
       </c>
@@ -14836,6 +15088,9 @@
       <c r="K276" t="s">
         <v>77</v>
       </c>
+      <c r="L276">
+        <v>2019</v>
+      </c>
       <c r="M276" s="1">
         <v>8</v>
       </c>
@@ -14880,6 +15135,9 @@
       <c r="K277" t="s">
         <v>266</v>
       </c>
+      <c r="L277">
+        <v>2019</v>
+      </c>
       <c r="M277" s="1">
         <v>9</v>
       </c>
@@ -14924,6 +15182,9 @@
       <c r="K278" t="s">
         <v>220</v>
       </c>
+      <c r="L278">
+        <v>2019</v>
+      </c>
       <c r="M278" s="1">
         <v>9</v>
       </c>
@@ -14968,6 +15229,9 @@
       <c r="K279" t="s">
         <v>198</v>
       </c>
+      <c r="L279">
+        <v>2019</v>
+      </c>
       <c r="M279" s="1">
         <v>9</v>
       </c>
@@ -15012,6 +15276,9 @@
       <c r="K280" t="s">
         <v>234</v>
       </c>
+      <c r="L280">
+        <v>2019</v>
+      </c>
       <c r="M280" s="1">
         <v>9</v>
       </c>
@@ -15056,6 +15323,9 @@
       <c r="K281" t="s">
         <v>208</v>
       </c>
+      <c r="L281">
+        <v>2019</v>
+      </c>
       <c r="M281" s="1">
         <v>9</v>
       </c>
@@ -15100,6 +15370,9 @@
       <c r="K282" t="s">
         <v>220</v>
       </c>
+      <c r="L282">
+        <v>2019</v>
+      </c>
       <c r="M282" s="1">
         <v>9</v>
       </c>
@@ -15144,6 +15417,9 @@
       <c r="K283" t="s">
         <v>77</v>
       </c>
+      <c r="L283">
+        <v>2019</v>
+      </c>
       <c r="M283" s="1">
         <v>9</v>
       </c>
@@ -15188,6 +15464,9 @@
       <c r="K284" t="s">
         <v>77</v>
       </c>
+      <c r="L284">
+        <v>2019</v>
+      </c>
       <c r="M284" s="1">
         <v>9</v>
       </c>
@@ -15232,6 +15511,9 @@
       <c r="K285" t="s">
         <v>220</v>
       </c>
+      <c r="L285">
+        <v>2019</v>
+      </c>
       <c r="M285" s="1">
         <v>9</v>
       </c>
@@ -15276,6 +15558,9 @@
       <c r="K286" t="s">
         <v>208</v>
       </c>
+      <c r="L286">
+        <v>2019</v>
+      </c>
       <c r="M286" s="1">
         <v>9</v>
       </c>
@@ -15320,6 +15605,9 @@
       <c r="K287" t="s">
         <v>208</v>
       </c>
+      <c r="L287">
+        <v>2019</v>
+      </c>
       <c r="M287" s="1">
         <v>8</v>
       </c>
@@ -15364,6 +15652,9 @@
       <c r="K288" t="s">
         <v>208</v>
       </c>
+      <c r="L288">
+        <v>2019</v>
+      </c>
       <c r="M288" s="1">
         <v>8</v>
       </c>
@@ -15408,6 +15699,9 @@
       <c r="K289" t="s">
         <v>77</v>
       </c>
+      <c r="L289">
+        <v>2019</v>
+      </c>
       <c r="M289" s="1">
         <v>9</v>
       </c>
@@ -15452,6 +15746,9 @@
       <c r="K290" t="s">
         <v>77</v>
       </c>
+      <c r="L290">
+        <v>2019</v>
+      </c>
       <c r="M290" s="1">
         <v>8</v>
       </c>
@@ -15496,6 +15793,9 @@
       <c r="K291" t="s">
         <v>234</v>
       </c>
+      <c r="L291">
+        <v>2019</v>
+      </c>
       <c r="M291" s="1">
         <v>9</v>
       </c>
@@ -15540,6 +15840,9 @@
       <c r="K292" t="s">
         <v>198</v>
       </c>
+      <c r="L292">
+        <v>2019</v>
+      </c>
       <c r="M292" s="1">
         <v>9</v>
       </c>
@@ -15584,6 +15887,9 @@
       <c r="K293" t="s">
         <v>77</v>
       </c>
+      <c r="L293">
+        <v>2019</v>
+      </c>
       <c r="M293" s="1">
         <v>8</v>
       </c>
@@ -15628,6 +15934,9 @@
       <c r="K294" t="s">
         <v>208</v>
       </c>
+      <c r="L294">
+        <v>2019</v>
+      </c>
       <c r="M294" s="1">
         <v>8</v>
       </c>
@@ -15672,6 +15981,9 @@
       <c r="K295" t="s">
         <v>266</v>
       </c>
+      <c r="L295">
+        <v>2019</v>
+      </c>
       <c r="M295" s="1">
         <v>9</v>
       </c>
@@ -15716,6 +16028,9 @@
       <c r="K296" t="s">
         <v>77</v>
       </c>
+      <c r="L296">
+        <v>2019</v>
+      </c>
       <c r="M296" s="1">
         <v>9</v>
       </c>
@@ -15760,6 +16075,9 @@
       <c r="K297" t="s">
         <v>77</v>
       </c>
+      <c r="L297">
+        <v>2019</v>
+      </c>
       <c r="M297" s="1">
         <v>9</v>
       </c>
@@ -15804,6 +16122,9 @@
       <c r="K298" t="s">
         <v>124</v>
       </c>
+      <c r="L298">
+        <v>2019</v>
+      </c>
       <c r="M298" s="1">
         <v>8</v>
       </c>
@@ -15848,6 +16169,9 @@
       <c r="K299" t="s">
         <v>266</v>
       </c>
+      <c r="L299">
+        <v>2019</v>
+      </c>
       <c r="M299" s="1">
         <v>9</v>
       </c>
@@ -15892,6 +16216,9 @@
       <c r="K300" t="s">
         <v>208</v>
       </c>
+      <c r="L300">
+        <v>2019</v>
+      </c>
       <c r="M300" s="1">
         <v>9</v>
       </c>
@@ -15936,6 +16263,9 @@
       <c r="K301" t="s">
         <v>234</v>
       </c>
+      <c r="L301">
+        <v>2019</v>
+      </c>
       <c r="M301" s="1">
         <v>9</v>
       </c>
@@ -15980,6 +16310,9 @@
       <c r="K302" t="s">
         <v>208</v>
       </c>
+      <c r="L302">
+        <v>2019</v>
+      </c>
       <c r="M302" s="1">
         <v>9</v>
       </c>
@@ -16024,6 +16357,9 @@
       <c r="K303" t="s">
         <v>220</v>
       </c>
+      <c r="L303">
+        <v>2019</v>
+      </c>
       <c r="M303" s="1">
         <v>9</v>
       </c>
@@ -16068,6 +16404,9 @@
       <c r="K304" t="s">
         <v>77</v>
       </c>
+      <c r="L304">
+        <v>2019</v>
+      </c>
       <c r="M304" s="1">
         <v>8</v>
       </c>
@@ -16112,6 +16451,9 @@
       <c r="K305" t="s">
         <v>234</v>
       </c>
+      <c r="L305">
+        <v>2019</v>
+      </c>
       <c r="M305" s="1">
         <v>9</v>
       </c>
@@ -16156,6 +16498,9 @@
       <c r="K306" t="s">
         <v>77</v>
       </c>
+      <c r="L306">
+        <v>2019</v>
+      </c>
       <c r="M306" s="1">
         <v>8</v>
       </c>
@@ -16200,6 +16545,9 @@
       <c r="K307" t="s">
         <v>266</v>
       </c>
+      <c r="L307">
+        <v>2019</v>
+      </c>
       <c r="M307" s="1">
         <v>9</v>
       </c>
@@ -16244,6 +16592,9 @@
       <c r="K308" t="s">
         <v>198</v>
       </c>
+      <c r="L308">
+        <v>2019</v>
+      </c>
       <c r="M308" s="1">
         <v>9</v>
       </c>
@@ -16288,6 +16639,9 @@
       <c r="K309" t="s">
         <v>208</v>
       </c>
+      <c r="L309">
+        <v>2019</v>
+      </c>
       <c r="M309" s="1">
         <v>8</v>
       </c>
@@ -16332,6 +16686,9 @@
       <c r="K310" t="s">
         <v>211</v>
       </c>
+      <c r="L310">
+        <v>2019</v>
+      </c>
       <c r="M310" s="1">
         <v>8</v>
       </c>
@@ -16376,6 +16733,9 @@
       <c r="K311" t="s">
         <v>124</v>
       </c>
+      <c r="L311">
+        <v>2019</v>
+      </c>
       <c r="M311" s="1">
         <v>8</v>
       </c>
@@ -16420,6 +16780,9 @@
       <c r="K312" t="s">
         <v>77</v>
       </c>
+      <c r="L312">
+        <v>2019</v>
+      </c>
       <c r="M312" s="1">
         <v>8</v>
       </c>
@@ -16464,6 +16827,9 @@
       <c r="K313" t="s">
         <v>77</v>
       </c>
+      <c r="L313">
+        <v>2019</v>
+      </c>
       <c r="M313" s="1">
         <v>9</v>
       </c>
@@ -16508,6 +16874,9 @@
       <c r="K314" t="s">
         <v>208</v>
       </c>
+      <c r="L314">
+        <v>2019</v>
+      </c>
       <c r="M314" s="1">
         <v>9</v>
       </c>
@@ -16552,6 +16921,9 @@
       <c r="K315" t="s">
         <v>208</v>
       </c>
+      <c r="L315">
+        <v>2019</v>
+      </c>
       <c r="M315" s="1">
         <v>8</v>
       </c>
@@ -16596,6 +16968,9 @@
       <c r="K316" t="s">
         <v>220</v>
       </c>
+      <c r="L316">
+        <v>2019</v>
+      </c>
       <c r="M316" s="1">
         <v>9</v>
       </c>
@@ -16640,6 +17015,9 @@
       <c r="K317" t="s">
         <v>198</v>
       </c>
+      <c r="L317">
+        <v>2019</v>
+      </c>
       <c r="M317" s="1">
         <v>9</v>
       </c>
@@ -16684,6 +17062,9 @@
       <c r="K318" t="s">
         <v>266</v>
       </c>
+      <c r="L318">
+        <v>2019</v>
+      </c>
       <c r="M318" s="1">
         <v>9</v>
       </c>
@@ -16728,6 +17109,9 @@
       <c r="K319" t="s">
         <v>124</v>
       </c>
+      <c r="L319">
+        <v>2019</v>
+      </c>
       <c r="M319" s="1">
         <v>9</v>
       </c>
@@ -16772,6 +17156,9 @@
       <c r="K320" t="s">
         <v>266</v>
       </c>
+      <c r="L320">
+        <v>2019</v>
+      </c>
       <c r="M320" s="1">
         <v>9</v>
       </c>
@@ -16816,6 +17203,9 @@
       <c r="K321" t="s">
         <v>124</v>
       </c>
+      <c r="L321">
+        <v>2019</v>
+      </c>
       <c r="M321" s="1">
         <v>8</v>
       </c>
@@ -16860,6 +17250,9 @@
       <c r="K322" t="s">
         <v>124</v>
       </c>
+      <c r="L322">
+        <v>2019</v>
+      </c>
       <c r="M322" s="1">
         <v>9</v>
       </c>
@@ -16904,6 +17297,9 @@
       <c r="K323" t="s">
         <v>234</v>
       </c>
+      <c r="L323">
+        <v>2019</v>
+      </c>
       <c r="M323" s="1">
         <v>8</v>
       </c>
@@ -16948,6 +17344,9 @@
       <c r="K324" t="s">
         <v>208</v>
       </c>
+      <c r="L324">
+        <v>2019</v>
+      </c>
       <c r="M324" s="1">
         <v>9</v>
       </c>
@@ -16992,6 +17391,9 @@
       <c r="K325" t="s">
         <v>208</v>
       </c>
+      <c r="L325">
+        <v>2019</v>
+      </c>
       <c r="M325" s="1">
         <v>9</v>
       </c>
@@ -17036,6 +17438,9 @@
       <c r="K326" t="s">
         <v>220</v>
       </c>
+      <c r="L326">
+        <v>2019</v>
+      </c>
       <c r="M326" s="1">
         <v>9</v>
       </c>
@@ -17080,6 +17485,9 @@
       <c r="K327" t="s">
         <v>234</v>
       </c>
+      <c r="L327">
+        <v>2019</v>
+      </c>
       <c r="M327" s="1">
         <v>8</v>
       </c>
@@ -17124,6 +17532,9 @@
       <c r="K328" t="s">
         <v>208</v>
       </c>
+      <c r="L328">
+        <v>2019</v>
+      </c>
       <c r="M328" s="1">
         <v>9</v>
       </c>
@@ -17168,6 +17579,9 @@
       <c r="K329" t="s">
         <v>208</v>
       </c>
+      <c r="L329">
+        <v>2019</v>
+      </c>
       <c r="M329" s="1">
         <v>8</v>
       </c>
@@ -17212,6 +17626,9 @@
       <c r="K330" t="s">
         <v>208</v>
       </c>
+      <c r="L330">
+        <v>2019</v>
+      </c>
       <c r="M330" s="1">
         <v>9</v>
       </c>
@@ -17256,6 +17673,9 @@
       <c r="K331" t="s">
         <v>77</v>
       </c>
+      <c r="L331">
+        <v>2019</v>
+      </c>
       <c r="M331" s="1">
         <v>9</v>
       </c>
@@ -17300,6 +17720,9 @@
       <c r="K332" t="s">
         <v>124</v>
       </c>
+      <c r="L332">
+        <v>2019</v>
+      </c>
       <c r="M332" s="1">
         <v>9</v>
       </c>
@@ -17344,6 +17767,9 @@
       <c r="K333" t="s">
         <v>124</v>
       </c>
+      <c r="L333">
+        <v>2019</v>
+      </c>
       <c r="M333" s="1">
         <v>9</v>
       </c>
@@ -17388,6 +17814,9 @@
       <c r="K334" t="s">
         <v>124</v>
       </c>
+      <c r="L334">
+        <v>2019</v>
+      </c>
       <c r="M334" s="1">
         <v>9</v>
       </c>
@@ -17432,6 +17861,9 @@
       <c r="K335" t="s">
         <v>266</v>
       </c>
+      <c r="L335">
+        <v>2019</v>
+      </c>
       <c r="M335" s="1">
         <v>9</v>
       </c>
@@ -17476,6 +17908,9 @@
       <c r="K336" t="s">
         <v>208</v>
       </c>
+      <c r="L336">
+        <v>2019</v>
+      </c>
       <c r="M336" s="1">
         <v>9</v>
       </c>
@@ -17520,6 +17955,9 @@
       <c r="K337" t="s">
         <v>77</v>
       </c>
+      <c r="L337">
+        <v>2019</v>
+      </c>
       <c r="M337" s="1">
         <v>9</v>
       </c>
@@ -17564,6 +18002,9 @@
       <c r="K338" t="s">
         <v>220</v>
       </c>
+      <c r="L338">
+        <v>2019</v>
+      </c>
       <c r="M338" s="1">
         <v>9</v>
       </c>
@@ -17608,6 +18049,9 @@
       <c r="K339" t="s">
         <v>77</v>
       </c>
+      <c r="L339">
+        <v>2019</v>
+      </c>
       <c r="M339" s="1">
         <v>9</v>
       </c>
@@ -17652,6 +18096,9 @@
       <c r="K340" t="s">
         <v>208</v>
       </c>
+      <c r="L340">
+        <v>2019</v>
+      </c>
       <c r="M340" s="1">
         <v>9</v>
       </c>
@@ -17696,6 +18143,9 @@
       <c r="K341" t="s">
         <v>77</v>
       </c>
+      <c r="L341">
+        <v>2019</v>
+      </c>
       <c r="M341" s="1">
         <v>9</v>
       </c>
@@ -17740,6 +18190,9 @@
       <c r="K342" t="s">
         <v>77</v>
       </c>
+      <c r="L342">
+        <v>2019</v>
+      </c>
       <c r="M342" s="1">
         <v>9</v>
       </c>
@@ -17784,6 +18237,9 @@
       <c r="K343" t="s">
         <v>234</v>
       </c>
+      <c r="L343">
+        <v>2019</v>
+      </c>
       <c r="M343" s="1">
         <v>9</v>
       </c>
@@ -17828,6 +18284,9 @@
       <c r="K344" t="s">
         <v>208</v>
       </c>
+      <c r="L344">
+        <v>2019</v>
+      </c>
       <c r="M344" s="1">
         <v>8</v>
       </c>
@@ -17872,6 +18331,9 @@
       <c r="K345" t="s">
         <v>208</v>
       </c>
+      <c r="L345">
+        <v>2019</v>
+      </c>
       <c r="M345" s="1">
         <v>8</v>
       </c>
@@ -17916,6 +18378,9 @@
       <c r="K346" t="s">
         <v>266</v>
       </c>
+      <c r="L346">
+        <v>2019</v>
+      </c>
       <c r="M346" s="1">
         <v>9</v>
       </c>
@@ -17960,6 +18425,9 @@
       <c r="K347" t="s">
         <v>77</v>
       </c>
+      <c r="L347">
+        <v>2019</v>
+      </c>
       <c r="M347" s="1">
         <v>9</v>
       </c>
@@ -18004,6 +18472,9 @@
       <c r="K348" t="s">
         <v>77</v>
       </c>
+      <c r="L348">
+        <v>2019</v>
+      </c>
       <c r="M348" s="1">
         <v>8</v>
       </c>
@@ -18048,6 +18519,9 @@
       <c r="K349" t="s">
         <v>77</v>
       </c>
+      <c r="L349">
+        <v>2019</v>
+      </c>
       <c r="M349" s="1">
         <v>9</v>
       </c>
@@ -18092,6 +18566,9 @@
       <c r="K350" t="s">
         <v>208</v>
       </c>
+      <c r="L350">
+        <v>2019</v>
+      </c>
       <c r="M350" s="1">
         <v>8</v>
       </c>
@@ -18136,6 +18613,9 @@
       <c r="K351" t="s">
         <v>198</v>
       </c>
+      <c r="L351">
+        <v>2019</v>
+      </c>
       <c r="M351" s="1">
         <v>9</v>
       </c>
@@ -18180,6 +18660,9 @@
       <c r="K352" t="s">
         <v>220</v>
       </c>
+      <c r="L352">
+        <v>2019</v>
+      </c>
       <c r="M352" s="1">
         <v>9</v>
       </c>
@@ -18224,6 +18707,9 @@
       <c r="K353" t="s">
         <v>220</v>
       </c>
+      <c r="L353">
+        <v>2019</v>
+      </c>
       <c r="M353" s="1">
         <v>9</v>
       </c>
@@ -18268,6 +18754,9 @@
       <c r="K354" t="s">
         <v>124</v>
       </c>
+      <c r="L354">
+        <v>2019</v>
+      </c>
       <c r="M354" s="1">
         <v>9</v>
       </c>
@@ -18312,6 +18801,9 @@
       <c r="K355" t="s">
         <v>77</v>
       </c>
+      <c r="L355">
+        <v>2019</v>
+      </c>
       <c r="M355" s="1">
         <v>9</v>
       </c>
@@ -18356,6 +18848,9 @@
       <c r="K356" t="s">
         <v>208</v>
       </c>
+      <c r="L356">
+        <v>2019</v>
+      </c>
       <c r="M356" s="1">
         <v>8</v>
       </c>
@@ -18400,6 +18895,9 @@
       <c r="K357" t="s">
         <v>208</v>
       </c>
+      <c r="L357">
+        <v>2019</v>
+      </c>
       <c r="M357" s="1">
         <v>8</v>
       </c>
@@ -18444,6 +18942,9 @@
       <c r="K358" t="s">
         <v>220</v>
       </c>
+      <c r="L358">
+        <v>2019</v>
+      </c>
       <c r="M358" s="1">
         <v>9</v>
       </c>
@@ -18488,6 +18989,9 @@
       <c r="K359" t="s">
         <v>198</v>
       </c>
+      <c r="L359">
+        <v>2019</v>
+      </c>
       <c r="M359" s="1">
         <v>9</v>
       </c>
@@ -18532,6 +19036,9 @@
       <c r="K360" t="s">
         <v>234</v>
       </c>
+      <c r="L360">
+        <v>2019</v>
+      </c>
       <c r="M360" s="1">
         <v>8</v>
       </c>
@@ -18576,6 +19083,9 @@
       <c r="K361" t="s">
         <v>234</v>
       </c>
+      <c r="L361">
+        <v>2019</v>
+      </c>
       <c r="M361" s="1">
         <v>9</v>
       </c>
@@ -18620,6 +19130,9 @@
       <c r="K362" t="s">
         <v>77</v>
       </c>
+      <c r="L362">
+        <v>2019</v>
+      </c>
       <c r="M362" s="1">
         <v>9</v>
       </c>
@@ -18664,6 +19177,9 @@
       <c r="K363" t="s">
         <v>266</v>
       </c>
+      <c r="L363">
+        <v>2019</v>
+      </c>
       <c r="M363" s="1">
         <v>9</v>
       </c>
@@ -18708,6 +19224,9 @@
       <c r="K364" t="s">
         <v>124</v>
       </c>
+      <c r="L364">
+        <v>2019</v>
+      </c>
       <c r="M364" s="1">
         <v>9</v>
       </c>
@@ -18752,6 +19271,9 @@
       <c r="K365" t="s">
         <v>220</v>
       </c>
+      <c r="L365">
+        <v>2019</v>
+      </c>
       <c r="M365" s="1">
         <v>9</v>
       </c>
@@ -18796,6 +19318,9 @@
       <c r="K366" t="s">
         <v>220</v>
       </c>
+      <c r="L366">
+        <v>2019</v>
+      </c>
       <c r="M366" s="1">
         <v>8</v>
       </c>
@@ -18840,6 +19365,9 @@
       <c r="K367" t="s">
         <v>198</v>
       </c>
+      <c r="L367">
+        <v>2019</v>
+      </c>
       <c r="M367" s="1">
         <v>9</v>
       </c>
@@ -18884,6 +19412,9 @@
       <c r="K368" t="s">
         <v>266</v>
       </c>
+      <c r="L368">
+        <v>2019</v>
+      </c>
       <c r="M368" s="1">
         <v>9</v>
       </c>
@@ -18928,6 +19459,9 @@
       <c r="K369" t="s">
         <v>77</v>
       </c>
+      <c r="L369">
+        <v>2019</v>
+      </c>
       <c r="M369" s="1">
         <v>9</v>
       </c>
@@ -18972,6 +19506,9 @@
       <c r="K370" t="s">
         <v>208</v>
       </c>
+      <c r="L370">
+        <v>2019</v>
+      </c>
       <c r="M370" s="1">
         <v>9</v>
       </c>
@@ -19016,6 +19553,9 @@
       <c r="K371" t="s">
         <v>220</v>
       </c>
+      <c r="L371">
+        <v>2019</v>
+      </c>
       <c r="M371" s="1">
         <v>9</v>
       </c>
@@ -19060,6 +19600,9 @@
       <c r="K372" t="s">
         <v>208</v>
       </c>
+      <c r="L372">
+        <v>2019</v>
+      </c>
       <c r="M372" s="1">
         <v>8</v>
       </c>
@@ -19104,6 +19647,9 @@
       <c r="K373" t="s">
         <v>77</v>
       </c>
+      <c r="L373">
+        <v>2019</v>
+      </c>
       <c r="M373" s="1">
         <v>8</v>
       </c>
@@ -19148,6 +19694,9 @@
       <c r="K374" t="s">
         <v>208</v>
       </c>
+      <c r="L374">
+        <v>2019</v>
+      </c>
       <c r="M374" s="1">
         <v>9</v>
       </c>
@@ -19192,6 +19741,9 @@
       <c r="K375" t="s">
         <v>124</v>
       </c>
+      <c r="L375">
+        <v>2019</v>
+      </c>
       <c r="M375" s="1">
         <v>8</v>
       </c>
@@ -19236,6 +19788,9 @@
       <c r="K376" t="s">
         <v>198</v>
       </c>
+      <c r="L376">
+        <v>2019</v>
+      </c>
       <c r="M376" s="1">
         <v>9</v>
       </c>
@@ -19280,6 +19835,9 @@
       <c r="K377" t="s">
         <v>266</v>
       </c>
+      <c r="L377">
+        <v>2019</v>
+      </c>
       <c r="M377" s="1">
         <v>9</v>
       </c>
@@ -19324,6 +19882,9 @@
       <c r="K378" t="s">
         <v>124</v>
       </c>
+      <c r="L378">
+        <v>2019</v>
+      </c>
       <c r="M378" s="1">
         <v>9</v>
       </c>
@@ -19368,6 +19929,9 @@
       <c r="K379" t="s">
         <v>234</v>
       </c>
+      <c r="L379">
+        <v>2019</v>
+      </c>
       <c r="M379" s="1">
         <v>9</v>
       </c>
@@ -19412,6 +19976,9 @@
       <c r="K380" t="s">
         <v>220</v>
       </c>
+      <c r="L380">
+        <v>2019</v>
+      </c>
       <c r="M380" s="1">
         <v>9</v>
       </c>
@@ -19456,6 +20023,9 @@
       <c r="K381" t="s">
         <v>77</v>
       </c>
+      <c r="L381">
+        <v>2019</v>
+      </c>
       <c r="M381" s="1">
         <v>9</v>
       </c>
@@ -19500,6 +20070,9 @@
       <c r="K382" t="s">
         <v>77</v>
       </c>
+      <c r="L382">
+        <v>2019</v>
+      </c>
       <c r="M382" s="1">
         <v>8</v>
       </c>
@@ -19511,9 +20084,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:N382" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:N191">
-      <sortCondition ref="N2"/>
+  <autoFilter ref="A1:O382" xr:uid="{029D7D47-4860-4890-9386-99D142A7D701}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O382">
+      <sortCondition ref="O378"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -19522,15 +20095,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
@@ -19538,7 +20102,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -19761,15 +20325,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D47D62B-7909-46BE-AE91-4EE1A69B85E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DB1FA3B-619F-4E10-B684-BF0813B418AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -19779,7 +20344,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{911D62B3-8351-49F1-A8DA-5D750131BE07}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19796,4 +20361,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D47D62B-7909-46BE-AE91-4EE1A69B85E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>